--- a/추가피처데이터/투자자별매매동향(수급)/336260.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/336260.xlsx
@@ -1664,43 +1664,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1932,58 +1932,58 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>1826</v>
+        <v>55753</v>
       </c>
       <c r="C6" s="7">
-        <v>1768</v>
+        <v>53779</v>
       </c>
       <c r="D6" s="9">
-        <v>58</v>
+        <v>1974</v>
       </c>
       <c r="E6" s="11">
-        <v>2440</v>
+        <v>73793</v>
       </c>
       <c r="F6" s="13">
-        <v>2245</v>
+        <v>68157</v>
       </c>
       <c r="G6" s="15">
-        <v>195</v>
+        <v>5637</v>
       </c>
       <c r="H6" s="17">
-        <v>341</v>
+        <v>10361</v>
       </c>
       <c r="I6" s="19">
-        <v>601</v>
+        <v>18195</v>
       </c>
       <c r="J6" s="21">
-        <v>-260</v>
+        <v>-7834</v>
       </c>
       <c r="K6" s="23">
-        <v>197</v>
+        <v>5994</v>
       </c>
       <c r="L6" s="25">
-        <v>168</v>
+        <v>5067</v>
       </c>
       <c r="M6" s="27">
-        <v>30</v>
+        <v>927</v>
       </c>
       <c r="N6" s="29">
-        <v>17</v>
+        <v>523</v>
       </c>
       <c r="O6" s="31">
-        <v>26</v>
+        <v>786</v>
       </c>
       <c r="P6" s="33">
-        <v>-9</v>
+        <v>-263</v>
       </c>
       <c r="Q6" s="35">
-        <v>35</v>
+        <v>1052</v>
       </c>
       <c r="R6" s="37">
-        <v>66</v>
+        <v>2005</v>
       </c>
       <c r="S6" s="39">
-        <v>-32</v>
+        <v>-953</v>
       </c>
       <c r="T6" s="41">
         <v>0</v>
@@ -1995,31 +1995,31 @@
         <v>0</v>
       </c>
       <c r="W6" s="47">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="X6" s="49">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="51">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="Z6" s="53">
-        <v>59</v>
+        <v>1813</v>
       </c>
       <c r="AA6" s="55">
-        <v>275</v>
+        <v>8334</v>
       </c>
       <c r="AB6" s="57">
-        <v>-216</v>
+        <v>-6521</v>
       </c>
       <c r="AC6" s="59">
-        <v>29</v>
+        <v>873</v>
       </c>
       <c r="AD6" s="61">
-        <v>65</v>
+        <v>1956</v>
       </c>
       <c r="AE6" s="63">
-        <v>-36</v>
+        <v>-1083</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -2031,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>23</v>
+        <v>703</v>
       </c>
       <c r="AJ6" s="73">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="AK6" s="75">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="AL6" s="77">
-        <v>4630</v>
+        <v>140610</v>
       </c>
     </row>
     <row r="7">
@@ -2048,58 +2048,58 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>2144</v>
+        <v>70266</v>
       </c>
       <c r="C7" s="7">
-        <v>2340</v>
+        <v>75869</v>
       </c>
       <c r="D7" s="9">
-        <v>-196</v>
+        <v>-5603</v>
       </c>
       <c r="E7" s="11">
-        <v>5086</v>
+        <v>165303</v>
       </c>
       <c r="F7" s="13">
-        <v>4566</v>
+        <v>149577</v>
       </c>
       <c r="G7" s="15">
-        <v>519</v>
+        <v>15726</v>
       </c>
       <c r="H7" s="17">
-        <v>527</v>
+        <v>17337</v>
       </c>
       <c r="I7" s="19">
-        <v>869</v>
+        <v>28019</v>
       </c>
       <c r="J7" s="21">
-        <v>-342</v>
+        <v>-10682</v>
       </c>
       <c r="K7" s="23">
-        <v>183</v>
+        <v>5957</v>
       </c>
       <c r="L7" s="25">
-        <v>254</v>
+        <v>8243</v>
       </c>
       <c r="M7" s="27">
-        <v>-72</v>
+        <v>-2286</v>
       </c>
       <c r="N7" s="29">
-        <v>31</v>
+        <v>1033</v>
       </c>
       <c r="O7" s="31">
-        <v>33</v>
+        <v>1058</v>
       </c>
       <c r="P7" s="33">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="Q7" s="35">
-        <v>89</v>
+        <v>2976</v>
       </c>
       <c r="R7" s="37">
-        <v>228</v>
+        <v>7305</v>
       </c>
       <c r="S7" s="39">
-        <v>-139</v>
+        <v>-4328</v>
       </c>
       <c r="T7" s="41">
         <v>0</v>
@@ -2111,31 +2111,31 @@
         <v>0</v>
       </c>
       <c r="W7" s="47">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="X7" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="51">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="Z7" s="53">
-        <v>185</v>
+        <v>6064</v>
       </c>
       <c r="AA7" s="55">
-        <v>290</v>
+        <v>9348</v>
       </c>
       <c r="AB7" s="57">
-        <v>-106</v>
+        <v>-3284</v>
       </c>
       <c r="AC7" s="59">
-        <v>32</v>
+        <v>1065</v>
       </c>
       <c r="AD7" s="61">
-        <v>64</v>
+        <v>2065</v>
       </c>
       <c r="AE7" s="63">
-        <v>-32</v>
+        <v>-1000</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2147,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>55</v>
+        <v>1761</v>
       </c>
       <c r="AJ7" s="73">
-        <v>37</v>
+        <v>1202</v>
       </c>
       <c r="AK7" s="75">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="AL7" s="77">
-        <v>7812</v>
+        <v>254667</v>
       </c>
     </row>
     <row r="8">
@@ -2164,58 +2164,58 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>2144</v>
+        <v>74821</v>
       </c>
       <c r="C8" s="7">
-        <v>1940</v>
+        <v>67482</v>
       </c>
       <c r="D8" s="9">
-        <v>204</v>
+        <v>7340</v>
       </c>
       <c r="E8" s="11">
-        <v>5158</v>
+        <v>178582</v>
       </c>
       <c r="F8" s="13">
-        <v>5175</v>
+        <v>179967</v>
       </c>
       <c r="G8" s="15">
-        <v>-17</v>
+        <v>-1385</v>
       </c>
       <c r="H8" s="17">
-        <v>704</v>
+        <v>24545</v>
       </c>
       <c r="I8" s="19">
-        <v>910</v>
+        <v>31169</v>
       </c>
       <c r="J8" s="21">
-        <v>-206</v>
+        <v>-6624</v>
       </c>
       <c r="K8" s="23">
-        <v>285</v>
+        <v>9796</v>
       </c>
       <c r="L8" s="25">
-        <v>324</v>
+        <v>11313</v>
       </c>
       <c r="M8" s="27">
-        <v>-39</v>
+        <v>-1517</v>
       </c>
       <c r="N8" s="29">
-        <v>24</v>
+        <v>852</v>
       </c>
       <c r="O8" s="31">
-        <v>39</v>
+        <v>1319</v>
       </c>
       <c r="P8" s="33">
-        <v>-15</v>
+        <v>-467</v>
       </c>
       <c r="Q8" s="35">
-        <v>134</v>
+        <v>4751</v>
       </c>
       <c r="R8" s="37">
-        <v>360</v>
+        <v>12175</v>
       </c>
       <c r="S8" s="39">
-        <v>-226</v>
+        <v>-7424</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
@@ -2227,31 +2227,31 @@
         <v>0</v>
       </c>
       <c r="W8" s="47">
-        <v>8</v>
+        <v>271</v>
       </c>
       <c r="X8" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="51">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="Z8" s="53">
-        <v>179</v>
+        <v>6220</v>
       </c>
       <c r="AA8" s="55">
-        <v>129</v>
+        <v>4354</v>
       </c>
       <c r="AB8" s="57">
-        <v>50</v>
+        <v>1866</v>
       </c>
       <c r="AC8" s="59">
-        <v>75</v>
+        <v>2655</v>
       </c>
       <c r="AD8" s="61">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="AE8" s="63">
-        <v>17</v>
+        <v>648</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2263,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>52</v>
+        <v>1849</v>
       </c>
       <c r="AJ8" s="73">
-        <v>33</v>
+        <v>1179</v>
       </c>
       <c r="AK8" s="75">
-        <v>19</v>
+        <v>670</v>
       </c>
       <c r="AL8" s="77">
-        <v>8058</v>
+        <v>279797</v>
       </c>
     </row>
     <row r="9">
@@ -2280,58 +2280,58 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>2674</v>
+        <v>92824</v>
       </c>
       <c r="C9" s="7">
-        <v>2219</v>
+        <v>76659</v>
       </c>
       <c r="D9" s="9">
-        <v>454</v>
+        <v>16165</v>
       </c>
       <c r="E9" s="11">
-        <v>5906</v>
+        <v>203864</v>
       </c>
       <c r="F9" s="13">
-        <v>6517</v>
+        <v>225879</v>
       </c>
       <c r="G9" s="15">
-        <v>-611</v>
+        <v>-22015</v>
       </c>
       <c r="H9" s="17">
-        <v>1073</v>
+        <v>37345</v>
       </c>
       <c r="I9" s="19">
-        <v>871</v>
+        <v>29942</v>
       </c>
       <c r="J9" s="21">
-        <v>203</v>
+        <v>7403</v>
       </c>
       <c r="K9" s="23">
-        <v>292</v>
+        <v>10075</v>
       </c>
       <c r="L9" s="25">
-        <v>434</v>
+        <v>14959</v>
       </c>
       <c r="M9" s="27">
-        <v>-142</v>
+        <v>-4884</v>
       </c>
       <c r="N9" s="29">
-        <v>38</v>
+        <v>1308</v>
       </c>
       <c r="O9" s="31">
-        <v>17</v>
+        <v>583</v>
       </c>
       <c r="P9" s="33">
-        <v>21</v>
+        <v>725</v>
       </c>
       <c r="Q9" s="35">
-        <v>306</v>
+        <v>10728</v>
       </c>
       <c r="R9" s="37">
-        <v>165</v>
+        <v>5632</v>
       </c>
       <c r="S9" s="39">
-        <v>141</v>
+        <v>5096</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
@@ -2343,31 +2343,31 @@
         <v>0</v>
       </c>
       <c r="W9" s="47">
+        <v>46</v>
+      </c>
+      <c r="X9" s="49">
         <v>1</v>
       </c>
-      <c r="X9" s="49">
-        <v>0</v>
-      </c>
       <c r="Y9" s="51">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="Z9" s="53">
-        <v>309</v>
+        <v>10751</v>
       </c>
       <c r="AA9" s="55">
-        <v>138</v>
+        <v>4778</v>
       </c>
       <c r="AB9" s="57">
-        <v>170</v>
+        <v>5972</v>
       </c>
       <c r="AC9" s="59">
-        <v>128</v>
+        <v>4437</v>
       </c>
       <c r="AD9" s="61">
-        <v>117</v>
+        <v>3989</v>
       </c>
       <c r="AE9" s="63">
-        <v>11</v>
+        <v>448</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2379,16 +2379,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>31</v>
+        <v>1085</v>
       </c>
       <c r="AJ9" s="73">
-        <v>78</v>
+        <v>2638</v>
       </c>
       <c r="AK9" s="75">
-        <v>-46</v>
+        <v>-1554</v>
       </c>
       <c r="AL9" s="77">
-        <v>9684</v>
+        <v>335117</v>
       </c>
     </row>
     <row r="10">
@@ -2396,58 +2396,58 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>2083</v>
+        <v>67593</v>
       </c>
       <c r="C10" s="7">
-        <v>1880</v>
+        <v>60722</v>
       </c>
       <c r="D10" s="9">
-        <v>203</v>
+        <v>6872</v>
       </c>
       <c r="E10" s="11">
-        <v>3648</v>
+        <v>118651</v>
       </c>
       <c r="F10" s="13">
-        <v>3968</v>
+        <v>129416</v>
       </c>
       <c r="G10" s="15">
-        <v>-320</v>
+        <v>-10765</v>
       </c>
       <c r="H10" s="17">
-        <v>994</v>
+        <v>32157</v>
       </c>
       <c r="I10" s="19">
-        <v>867</v>
+        <v>27857</v>
       </c>
       <c r="J10" s="21">
-        <v>127</v>
+        <v>4299</v>
       </c>
       <c r="K10" s="23">
-        <v>256</v>
+        <v>8321</v>
       </c>
       <c r="L10" s="25">
-        <v>290</v>
+        <v>9285</v>
       </c>
       <c r="M10" s="27">
-        <v>-34</v>
+        <v>-964</v>
       </c>
       <c r="N10" s="29">
-        <v>42</v>
+        <v>1358</v>
       </c>
       <c r="O10" s="31">
-        <v>66</v>
+        <v>2105</v>
       </c>
       <c r="P10" s="33">
-        <v>-24</v>
+        <v>-747</v>
       </c>
       <c r="Q10" s="35">
-        <v>312</v>
+        <v>10149</v>
       </c>
       <c r="R10" s="37">
-        <v>167</v>
+        <v>5419</v>
       </c>
       <c r="S10" s="39">
-        <v>145</v>
+        <v>4731</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
@@ -2459,31 +2459,31 @@
         <v>0</v>
       </c>
       <c r="W10" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="49">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="Y10" s="51">
-        <v>-1</v>
+        <v>-37</v>
       </c>
       <c r="Z10" s="53">
-        <v>260</v>
+        <v>8396</v>
       </c>
       <c r="AA10" s="55">
-        <v>247</v>
+        <v>7941</v>
       </c>
       <c r="AB10" s="57">
-        <v>12</v>
+        <v>455</v>
       </c>
       <c r="AC10" s="59">
-        <v>124</v>
+        <v>3930</v>
       </c>
       <c r="AD10" s="61">
-        <v>96</v>
+        <v>3070</v>
       </c>
       <c r="AE10" s="63">
-        <v>28</v>
+        <v>861</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>48</v>
+        <v>1517</v>
       </c>
       <c r="AJ10" s="73">
-        <v>58</v>
+        <v>1923</v>
       </c>
       <c r="AK10" s="75">
-        <v>-11</v>
+        <v>-406</v>
       </c>
       <c r="AL10" s="77">
-        <v>6773</v>
+        <v>219918</v>
       </c>
     </row>
     <row r="11">
@@ -2512,94 +2512,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>2269</v>
+        <v>73287</v>
       </c>
       <c r="C11" s="7">
-        <v>2500</v>
+        <v>80480</v>
       </c>
       <c r="D11" s="9">
-        <v>-230</v>
+        <v>-7193</v>
       </c>
       <c r="E11" s="11">
-        <v>3792</v>
+        <v>121676</v>
       </c>
       <c r="F11" s="13">
-        <v>3481</v>
+        <v>112441</v>
       </c>
       <c r="G11" s="15">
-        <v>311</v>
+        <v>9235</v>
       </c>
       <c r="H11" s="17">
-        <v>800</v>
+        <v>25951</v>
       </c>
       <c r="I11" s="19">
-        <v>829</v>
+        <v>26441</v>
       </c>
       <c r="J11" s="21">
-        <v>-29</v>
+        <v>-489</v>
       </c>
       <c r="K11" s="23">
-        <v>232</v>
+        <v>7438</v>
       </c>
       <c r="L11" s="25">
-        <v>201</v>
+        <v>6432</v>
       </c>
       <c r="M11" s="27">
-        <v>31</v>
+        <v>1006</v>
       </c>
       <c r="N11" s="29">
-        <v>58</v>
+        <v>1934</v>
       </c>
       <c r="O11" s="31">
-        <v>36</v>
+        <v>1152</v>
       </c>
       <c r="P11" s="33">
+        <v>781</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>10382</v>
+      </c>
+      <c r="R11" s="37">
+        <v>4893</v>
+      </c>
+      <c r="S11" s="39">
+        <v>5489</v>
+      </c>
+      <c r="T11" s="41">
+        <v>0</v>
+      </c>
+      <c r="U11" s="43">
+        <v>0</v>
+      </c>
+      <c r="V11" s="45">
+        <v>0</v>
+      </c>
+      <c r="W11" s="47">
         <v>22</v>
       </c>
-      <c r="Q11" s="35">
-        <v>314</v>
-      </c>
-      <c r="R11" s="37">
-        <v>158</v>
-      </c>
-      <c r="S11" s="39">
-        <v>156</v>
-      </c>
-      <c r="T11" s="41">
-        <v>0</v>
-      </c>
-      <c r="U11" s="43">
-        <v>0</v>
-      </c>
-      <c r="V11" s="45">
-        <v>0</v>
-      </c>
-      <c r="W11" s="47">
-        <v>1</v>
-      </c>
       <c r="X11" s="49">
-        <v>7</v>
+        <v>229</v>
       </c>
       <c r="Y11" s="51">
-        <v>-6</v>
+        <v>-207</v>
       </c>
       <c r="Z11" s="53">
-        <v>149</v>
+        <v>4719</v>
       </c>
       <c r="AA11" s="55">
-        <v>191</v>
+        <v>6135</v>
       </c>
       <c r="AB11" s="57">
-        <v>-42</v>
+        <v>-1416</v>
       </c>
       <c r="AC11" s="59">
-        <v>46</v>
+        <v>1457</v>
       </c>
       <c r="AD11" s="61">
-        <v>236</v>
+        <v>7600</v>
       </c>
       <c r="AE11" s="63">
-        <v>-191</v>
+        <v>-6143</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>30</v>
+        <v>964</v>
       </c>
       <c r="AJ11" s="73">
-        <v>80</v>
+        <v>2517</v>
       </c>
       <c r="AK11" s="75">
-        <v>-51</v>
+        <v>-1553</v>
       </c>
       <c r="AL11" s="77">
-        <v>6891</v>
+        <v>221878</v>
       </c>
     </row>
     <row r="12">
@@ -2628,58 +2628,58 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>3982</v>
+        <v>136851</v>
       </c>
       <c r="C12" s="7">
-        <v>3625</v>
+        <v>123996</v>
       </c>
       <c r="D12" s="9">
-        <v>357</v>
+        <v>12855</v>
       </c>
       <c r="E12" s="11">
-        <v>8008</v>
+        <v>271470</v>
       </c>
       <c r="F12" s="13">
-        <v>8910</v>
+        <v>302847</v>
       </c>
       <c r="G12" s="15">
-        <v>-903</v>
+        <v>-31377</v>
       </c>
       <c r="H12" s="17">
-        <v>1742</v>
+        <v>59776</v>
       </c>
       <c r="I12" s="19">
-        <v>1227</v>
+        <v>42185</v>
       </c>
       <c r="J12" s="21">
-        <v>515</v>
+        <v>17591</v>
       </c>
       <c r="K12" s="23">
-        <v>396</v>
+        <v>13825</v>
       </c>
       <c r="L12" s="25">
-        <v>367</v>
+        <v>12538</v>
       </c>
       <c r="M12" s="27">
-        <v>30</v>
+        <v>1287</v>
       </c>
       <c r="N12" s="29">
-        <v>104</v>
+        <v>3563</v>
       </c>
       <c r="O12" s="31">
-        <v>49</v>
+        <v>1705</v>
       </c>
       <c r="P12" s="33">
-        <v>55</v>
+        <v>1858</v>
       </c>
       <c r="Q12" s="35">
-        <v>327</v>
+        <v>11115</v>
       </c>
       <c r="R12" s="37">
-        <v>217</v>
+        <v>7585</v>
       </c>
       <c r="S12" s="39">
-        <v>110</v>
+        <v>3530</v>
       </c>
       <c r="T12" s="41">
         <v>0</v>
@@ -2691,31 +2691,31 @@
         <v>0</v>
       </c>
       <c r="W12" s="47">
-        <v>49</v>
+        <v>1666</v>
       </c>
       <c r="X12" s="49">
-        <v>40</v>
+        <v>1417</v>
       </c>
       <c r="Y12" s="51">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="Z12" s="53">
-        <v>715</v>
+        <v>24359</v>
       </c>
       <c r="AA12" s="55">
-        <v>292</v>
+        <v>9945</v>
       </c>
       <c r="AB12" s="57">
-        <v>423</v>
+        <v>14414</v>
       </c>
       <c r="AC12" s="59">
-        <v>151</v>
+        <v>5249</v>
       </c>
       <c r="AD12" s="61">
-        <v>263</v>
+        <v>8996</v>
       </c>
       <c r="AE12" s="63">
-        <v>-112</v>
+        <v>-3747</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2727,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>147</v>
+        <v>5021</v>
       </c>
       <c r="AJ12" s="73">
-        <v>116</v>
+        <v>4090</v>
       </c>
       <c r="AK12" s="75">
-        <v>31</v>
+        <v>931</v>
       </c>
       <c r="AL12" s="77">
-        <v>13878</v>
+        <v>473119</v>
       </c>
     </row>
     <row r="13">
@@ -2744,58 +2744,58 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>3037</v>
+        <v>80834</v>
       </c>
       <c r="C13" s="7">
-        <v>3481</v>
+        <v>93283</v>
       </c>
       <c r="D13" s="9">
-        <v>-445</v>
+        <v>-12450</v>
       </c>
       <c r="E13" s="11">
-        <v>4358</v>
+        <v>117939</v>
       </c>
       <c r="F13" s="13">
-        <v>3645</v>
+        <v>98393</v>
       </c>
       <c r="G13" s="15">
-        <v>713</v>
+        <v>19546</v>
       </c>
       <c r="H13" s="17">
-        <v>596</v>
+        <v>15802</v>
       </c>
       <c r="I13" s="19">
-        <v>878</v>
+        <v>23265</v>
       </c>
       <c r="J13" s="21">
-        <v>-283</v>
+        <v>-7463</v>
       </c>
       <c r="K13" s="23">
-        <v>204</v>
+        <v>5435</v>
       </c>
       <c r="L13" s="25">
-        <v>191</v>
+        <v>5172</v>
       </c>
       <c r="M13" s="27">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="N13" s="29">
-        <v>55</v>
+        <v>1427</v>
       </c>
       <c r="O13" s="31">
-        <v>65</v>
+        <v>1683</v>
       </c>
       <c r="P13" s="33">
-        <v>-10</v>
+        <v>-255</v>
       </c>
       <c r="Q13" s="35">
-        <v>62</v>
+        <v>1643</v>
       </c>
       <c r="R13" s="37">
-        <v>143</v>
+        <v>3781</v>
       </c>
       <c r="S13" s="39">
-        <v>-81</v>
+        <v>-2138</v>
       </c>
       <c r="T13" s="41">
         <v>0</v>
@@ -2810,28 +2810,28 @@
         <v>0</v>
       </c>
       <c r="X13" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="51">
         <v>0</v>
       </c>
       <c r="Z13" s="53">
-        <v>172</v>
+        <v>4591</v>
       </c>
       <c r="AA13" s="55">
-        <v>390</v>
+        <v>10194</v>
       </c>
       <c r="AB13" s="57">
-        <v>-218</v>
+        <v>-5603</v>
       </c>
       <c r="AC13" s="59">
-        <v>102</v>
+        <v>2705</v>
       </c>
       <c r="AD13" s="61">
-        <v>89</v>
+        <v>2434</v>
       </c>
       <c r="AE13" s="63">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>22</v>
+        <v>572</v>
       </c>
       <c r="AJ13" s="73">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="AK13" s="75">
-        <v>14</v>
+        <v>367</v>
       </c>
       <c r="AL13" s="77">
-        <v>8012</v>
+        <v>215147</v>
       </c>
     </row>
     <row r="14">
@@ -2860,94 +2860,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>2025</v>
+        <v>65995</v>
       </c>
       <c r="C14" s="7">
-        <v>2903</v>
+        <v>96594</v>
       </c>
       <c r="D14" s="9">
-        <v>-878</v>
+        <v>-30599</v>
       </c>
       <c r="E14" s="11">
-        <v>4342</v>
+        <v>146055</v>
       </c>
       <c r="F14" s="13">
-        <v>3509</v>
+        <v>116536</v>
       </c>
       <c r="G14" s="15">
-        <v>833</v>
+        <v>29519</v>
       </c>
       <c r="H14" s="17">
-        <v>795</v>
+        <v>25663</v>
       </c>
       <c r="I14" s="19">
-        <v>756</v>
+        <v>24783</v>
       </c>
       <c r="J14" s="21">
-        <v>40</v>
+        <v>880</v>
       </c>
       <c r="K14" s="23">
-        <v>260</v>
+        <v>8447</v>
       </c>
       <c r="L14" s="25">
-        <v>241</v>
+        <v>8096</v>
       </c>
       <c r="M14" s="27">
-        <v>18</v>
+        <v>351</v>
       </c>
       <c r="N14" s="29">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="O14" s="31">
-        <v>26</v>
+        <v>868</v>
       </c>
       <c r="P14" s="33">
-        <v>-18</v>
+        <v>-625</v>
       </c>
       <c r="Q14" s="35">
-        <v>81</v>
+        <v>2699</v>
       </c>
       <c r="R14" s="37">
-        <v>142</v>
+        <v>4729</v>
       </c>
       <c r="S14" s="39">
-        <v>-61</v>
+        <v>-2030</v>
       </c>
       <c r="T14" s="41">
         <v>0</v>
       </c>
       <c r="U14" s="43">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="V14" s="45">
-        <v>-9</v>
+        <v>-309</v>
       </c>
       <c r="W14" s="47">
-        <v>22</v>
+        <v>658</v>
       </c>
       <c r="X14" s="49">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="Y14" s="51">
-        <v>13</v>
+        <v>383</v>
       </c>
       <c r="Z14" s="53">
-        <v>298</v>
+        <v>9499</v>
       </c>
       <c r="AA14" s="55">
-        <v>193</v>
+        <v>6019</v>
       </c>
       <c r="AB14" s="57">
-        <v>105</v>
+        <v>3479</v>
       </c>
       <c r="AC14" s="59">
-        <v>128</v>
+        <v>4118</v>
       </c>
       <c r="AD14" s="61">
-        <v>136</v>
+        <v>4487</v>
       </c>
       <c r="AE14" s="63">
-        <v>-8</v>
+        <v>-370</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>31</v>
+        <v>1029</v>
       </c>
       <c r="AJ14" s="73">
-        <v>25</v>
+        <v>828</v>
       </c>
       <c r="AK14" s="75">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="AL14" s="77">
-        <v>7194</v>
+        <v>238741</v>
       </c>
     </row>
     <row r="15">
@@ -2976,94 +2976,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>4998</v>
+        <v>192097</v>
       </c>
       <c r="C15" s="7">
-        <v>3964</v>
+        <v>152878</v>
       </c>
       <c r="D15" s="9">
-        <v>1034</v>
+        <v>39219</v>
       </c>
       <c r="E15" s="11">
-        <v>12232</v>
+        <v>473818</v>
       </c>
       <c r="F15" s="13">
-        <v>13487</v>
+        <v>522967</v>
       </c>
       <c r="G15" s="15">
-        <v>-1256</v>
+        <v>-49149</v>
       </c>
       <c r="H15" s="17">
-        <v>1625</v>
+        <v>61997</v>
       </c>
       <c r="I15" s="19">
-        <v>1338</v>
+        <v>49717</v>
       </c>
       <c r="J15" s="21">
-        <v>287</v>
+        <v>12280</v>
       </c>
       <c r="K15" s="23">
-        <v>265</v>
+        <v>9955</v>
       </c>
       <c r="L15" s="25">
-        <v>351</v>
+        <v>13212</v>
       </c>
       <c r="M15" s="27">
-        <v>-86</v>
+        <v>-3257</v>
       </c>
       <c r="N15" s="29">
-        <v>49</v>
+        <v>1795</v>
       </c>
       <c r="O15" s="31">
-        <v>33</v>
+        <v>1246</v>
       </c>
       <c r="P15" s="33">
-        <v>16</v>
+        <v>549</v>
       </c>
       <c r="Q15" s="35">
-        <v>378</v>
+        <v>14307</v>
       </c>
       <c r="R15" s="37">
-        <v>202</v>
+        <v>7620</v>
       </c>
       <c r="S15" s="39">
-        <v>175</v>
+        <v>6687</v>
       </c>
       <c r="T15" s="41">
-        <v>9</v>
+        <v>305</v>
       </c>
       <c r="U15" s="43">
         <v>0</v>
       </c>
       <c r="V15" s="45">
-        <v>9</v>
+        <v>305</v>
       </c>
       <c r="W15" s="47">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="X15" s="49">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="Y15" s="51">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="Z15" s="53">
-        <v>642</v>
+        <v>24640</v>
       </c>
       <c r="AA15" s="55">
-        <v>386</v>
+        <v>13738</v>
       </c>
       <c r="AB15" s="57">
-        <v>256</v>
+        <v>10902</v>
       </c>
       <c r="AC15" s="59">
-        <v>277</v>
+        <v>10800</v>
       </c>
       <c r="AD15" s="61">
-        <v>364</v>
+        <v>13825</v>
       </c>
       <c r="AE15" s="63">
-        <v>-87</v>
+        <v>-3025</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3075,16 +3075,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>78</v>
+        <v>3015</v>
       </c>
       <c r="AJ15" s="73">
-        <v>144</v>
+        <v>5365</v>
       </c>
       <c r="AK15" s="75">
-        <v>-65</v>
+        <v>-2349</v>
       </c>
       <c r="AL15" s="77">
-        <v>18933</v>
+        <v>730927</v>
       </c>
     </row>
     <row r="16">
@@ -3092,58 +3092,58 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>2102</v>
+        <v>63080</v>
       </c>
       <c r="C16" s="7">
-        <v>1887</v>
+        <v>56565</v>
       </c>
       <c r="D16" s="9">
-        <v>215</v>
+        <v>6514</v>
       </c>
       <c r="E16" s="11">
-        <v>3017</v>
+        <v>90929</v>
       </c>
       <c r="F16" s="13">
-        <v>3302</v>
+        <v>100190</v>
       </c>
       <c r="G16" s="15">
-        <v>-285</v>
+        <v>-9261</v>
       </c>
       <c r="H16" s="17">
-        <v>711</v>
+        <v>21666</v>
       </c>
       <c r="I16" s="19">
-        <v>645</v>
+        <v>19062</v>
       </c>
       <c r="J16" s="21">
-        <v>66</v>
+        <v>2604</v>
       </c>
       <c r="K16" s="23">
-        <v>182</v>
+        <v>5468</v>
       </c>
       <c r="L16" s="25">
-        <v>213</v>
+        <v>6315</v>
       </c>
       <c r="M16" s="27">
-        <v>-31</v>
+        <v>-847</v>
       </c>
       <c r="N16" s="29">
-        <v>46</v>
+        <v>1373</v>
       </c>
       <c r="O16" s="31">
-        <v>48</v>
+        <v>1383</v>
       </c>
       <c r="P16" s="33">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="Q16" s="35">
-        <v>97</v>
+        <v>2987</v>
       </c>
       <c r="R16" s="37">
-        <v>85</v>
+        <v>2494</v>
       </c>
       <c r="S16" s="39">
-        <v>12</v>
+        <v>494</v>
       </c>
       <c r="T16" s="41">
         <v>0</v>
@@ -3158,28 +3158,28 @@
         <v>0</v>
       </c>
       <c r="X16" s="49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="51">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z16" s="53">
-        <v>252</v>
+        <v>7768</v>
       </c>
       <c r="AA16" s="55">
-        <v>190</v>
+        <v>5626</v>
       </c>
       <c r="AB16" s="57">
-        <v>62</v>
+        <v>2142</v>
       </c>
       <c r="AC16" s="59">
-        <v>133</v>
+        <v>4070</v>
       </c>
       <c r="AD16" s="61">
-        <v>109</v>
+        <v>3241</v>
       </c>
       <c r="AE16" s="63">
-        <v>25</v>
+        <v>828</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3191,16 +3191,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>31</v>
+        <v>959</v>
       </c>
       <c r="AJ16" s="73">
-        <v>27</v>
+        <v>816</v>
       </c>
       <c r="AK16" s="75">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="AL16" s="77">
-        <v>5861</v>
+        <v>176634</v>
       </c>
     </row>
     <row r="17">
@@ -3208,58 +3208,58 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>2966</v>
+        <v>98165</v>
       </c>
       <c r="C17" s="7">
-        <v>3199</v>
+        <v>105826</v>
       </c>
       <c r="D17" s="9">
-        <v>-233</v>
+        <v>-7661</v>
       </c>
       <c r="E17" s="11">
-        <v>6050</v>
+        <v>202262</v>
       </c>
       <c r="F17" s="13">
-        <v>5868</v>
+        <v>197935</v>
       </c>
       <c r="G17" s="15">
-        <v>182</v>
+        <v>4327</v>
       </c>
       <c r="H17" s="17">
-        <v>1020</v>
+        <v>34849</v>
       </c>
       <c r="I17" s="19">
-        <v>958</v>
+        <v>31273</v>
       </c>
       <c r="J17" s="21">
-        <v>62</v>
+        <v>3575</v>
       </c>
       <c r="K17" s="23">
-        <v>331</v>
+        <v>10900</v>
       </c>
       <c r="L17" s="25">
-        <v>267</v>
+        <v>9116</v>
       </c>
       <c r="M17" s="27">
-        <v>64</v>
+        <v>1784</v>
       </c>
       <c r="N17" s="29">
-        <v>49</v>
+        <v>1527</v>
       </c>
       <c r="O17" s="31">
-        <v>76</v>
+        <v>2397</v>
       </c>
       <c r="P17" s="33">
-        <v>-28</v>
+        <v>-870</v>
       </c>
       <c r="Q17" s="35">
-        <v>166</v>
+        <v>5636</v>
       </c>
       <c r="R17" s="37">
-        <v>154</v>
+        <v>5159</v>
       </c>
       <c r="S17" s="39">
-        <v>12</v>
+        <v>477</v>
       </c>
       <c r="T17" s="41">
         <v>0</v>
@@ -3271,31 +3271,31 @@
         <v>0</v>
       </c>
       <c r="W17" s="47">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="X17" s="49">
         <v>0</v>
       </c>
       <c r="Y17" s="51">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="Z17" s="53">
-        <v>336</v>
+        <v>12175</v>
       </c>
       <c r="AA17" s="55">
+        <v>11804</v>
+      </c>
+      <c r="AB17" s="57">
         <v>372</v>
       </c>
-      <c r="AB17" s="57">
-        <v>-36</v>
-      </c>
       <c r="AC17" s="59">
-        <v>138</v>
+        <v>4557</v>
       </c>
       <c r="AD17" s="61">
-        <v>88</v>
+        <v>2797</v>
       </c>
       <c r="AE17" s="63">
-        <v>49</v>
+        <v>1760</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3307,16 +3307,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>34</v>
+        <v>1172</v>
       </c>
       <c r="AJ17" s="73">
-        <v>45</v>
+        <v>1412</v>
       </c>
       <c r="AK17" s="75">
-        <v>-11</v>
+        <v>-241</v>
       </c>
       <c r="AL17" s="77">
-        <v>10070</v>
+        <v>336447</v>
       </c>
     </row>
     <row r="18">
@@ -3324,58 +3324,58 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>4371</v>
+        <v>165819</v>
       </c>
       <c r="C18" s="7">
-        <v>3749</v>
+        <v>141346</v>
       </c>
       <c r="D18" s="9">
-        <v>621</v>
+        <v>24472</v>
       </c>
       <c r="E18" s="11">
-        <v>12370</v>
+        <v>468154</v>
       </c>
       <c r="F18" s="13">
-        <v>12894</v>
+        <v>489577</v>
       </c>
       <c r="G18" s="15">
-        <v>-524</v>
+        <v>-21423</v>
       </c>
       <c r="H18" s="17">
-        <v>1040</v>
+        <v>39237</v>
       </c>
       <c r="I18" s="19">
-        <v>1041</v>
+        <v>38568</v>
       </c>
       <c r="J18" s="21">
-        <v>-1</v>
+        <v>670</v>
       </c>
       <c r="K18" s="23">
-        <v>340</v>
+        <v>12693</v>
       </c>
       <c r="L18" s="25">
-        <v>273</v>
+        <v>10220</v>
       </c>
       <c r="M18" s="27">
-        <v>67</v>
+        <v>2474</v>
       </c>
       <c r="N18" s="29">
-        <v>46</v>
+        <v>1759</v>
       </c>
       <c r="O18" s="31">
-        <v>24</v>
+        <v>905</v>
       </c>
       <c r="P18" s="33">
-        <v>21</v>
+        <v>854</v>
       </c>
       <c r="Q18" s="35">
-        <v>188</v>
+        <v>7139</v>
       </c>
       <c r="R18" s="37">
-        <v>118</v>
+        <v>4380</v>
       </c>
       <c r="S18" s="39">
-        <v>70</v>
+        <v>2759</v>
       </c>
       <c r="T18" s="41">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="X18" s="49">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="Y18" s="51">
-        <v>-1</v>
+        <v>-41</v>
       </c>
       <c r="Z18" s="53">
-        <v>234</v>
+        <v>8797</v>
       </c>
       <c r="AA18" s="55">
-        <v>382</v>
+        <v>14191</v>
       </c>
       <c r="AB18" s="57">
-        <v>-148</v>
+        <v>-5394</v>
       </c>
       <c r="AC18" s="59">
-        <v>232</v>
+        <v>8849</v>
       </c>
       <c r="AD18" s="61">
-        <v>243</v>
+        <v>8831</v>
       </c>
       <c r="AE18" s="63">
-        <v>-10</v>
+        <v>17</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>41</v>
+        <v>1541</v>
       </c>
       <c r="AJ18" s="73">
-        <v>138</v>
+        <v>5260</v>
       </c>
       <c r="AK18" s="75">
-        <v>-97</v>
+        <v>-3719</v>
       </c>
       <c r="AL18" s="77">
-        <v>17822</v>
+        <v>674751</v>
       </c>
     </row>
     <row r="19">
@@ -3440,58 +3440,58 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>3437</v>
+        <v>128792</v>
       </c>
       <c r="C19" s="7">
-        <v>3891</v>
+        <v>144113</v>
       </c>
       <c r="D19" s="9">
-        <v>-454</v>
+        <v>-15320</v>
       </c>
       <c r="E19" s="11">
-        <v>7237</v>
+        <v>270547</v>
       </c>
       <c r="F19" s="13">
-        <v>5583</v>
+        <v>209877</v>
       </c>
       <c r="G19" s="15">
-        <v>1654</v>
+        <v>60670</v>
       </c>
       <c r="H19" s="17">
-        <v>437</v>
+        <v>16480</v>
       </c>
       <c r="I19" s="19">
-        <v>1567</v>
+        <v>58914</v>
       </c>
       <c r="J19" s="21">
-        <v>-1130</v>
+        <v>-42434</v>
       </c>
       <c r="K19" s="23">
-        <v>215</v>
+        <v>8038</v>
       </c>
       <c r="L19" s="25">
-        <v>258</v>
+        <v>9854</v>
       </c>
       <c r="M19" s="27">
-        <v>-43</v>
+        <v>-1816</v>
       </c>
       <c r="N19" s="29">
-        <v>12</v>
+        <v>423</v>
       </c>
       <c r="O19" s="31">
-        <v>74</v>
+        <v>2805</v>
       </c>
       <c r="P19" s="33">
-        <v>-62</v>
+        <v>-2382</v>
       </c>
       <c r="Q19" s="35">
-        <v>31</v>
+        <v>1209</v>
       </c>
       <c r="R19" s="37">
-        <v>302</v>
+        <v>11278</v>
       </c>
       <c r="S19" s="39">
-        <v>-272</v>
+        <v>-10070</v>
       </c>
       <c r="T19" s="41">
         <v>0</v>
@@ -3503,31 +3503,31 @@
         <v>0</v>
       </c>
       <c r="W19" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19" s="49">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Y19" s="51">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="Z19" s="53">
-        <v>128</v>
+        <v>4900</v>
       </c>
       <c r="AA19" s="55">
-        <v>601</v>
+        <v>22774</v>
       </c>
       <c r="AB19" s="57">
-        <v>-473</v>
+        <v>-17874</v>
       </c>
       <c r="AC19" s="59">
-        <v>51</v>
+        <v>1909</v>
       </c>
       <c r="AD19" s="61">
-        <v>331</v>
+        <v>12184</v>
       </c>
       <c r="AE19" s="63">
-        <v>-280</v>
+        <v>-10275</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3539,16 +3539,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>30</v>
+        <v>1111</v>
       </c>
       <c r="AJ19" s="73">
-        <v>101</v>
+        <v>4026</v>
       </c>
       <c r="AK19" s="75">
-        <v>-70</v>
+        <v>-2916</v>
       </c>
       <c r="AL19" s="77">
-        <v>11141</v>
+        <v>416930</v>
       </c>
     </row>
     <row r="20">
@@ -3556,94 +3556,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>2651</v>
+        <v>107111</v>
       </c>
       <c r="C20" s="7">
-        <v>2491</v>
+        <v>100640</v>
       </c>
       <c r="D20" s="9">
-        <v>160</v>
+        <v>6470</v>
       </c>
       <c r="E20" s="11">
-        <v>5010</v>
+        <v>202473</v>
       </c>
       <c r="F20" s="13">
-        <v>4864</v>
+        <v>196790</v>
       </c>
       <c r="G20" s="15">
-        <v>146</v>
+        <v>5682</v>
       </c>
       <c r="H20" s="17">
-        <v>673</v>
+        <v>27177</v>
       </c>
       <c r="I20" s="19">
-        <v>974</v>
+        <v>39094</v>
       </c>
       <c r="J20" s="21">
-        <v>-301</v>
+        <v>-11917</v>
       </c>
       <c r="K20" s="23">
-        <v>255</v>
+        <v>10311</v>
       </c>
       <c r="L20" s="25">
-        <v>220</v>
+        <v>8838</v>
       </c>
       <c r="M20" s="27">
-        <v>36</v>
+        <v>1473</v>
       </c>
       <c r="N20" s="29">
-        <v>52</v>
+        <v>2088</v>
       </c>
       <c r="O20" s="31">
-        <v>33</v>
+        <v>1324</v>
       </c>
       <c r="P20" s="33">
-        <v>19</v>
+        <v>764</v>
       </c>
       <c r="Q20" s="35">
-        <v>89</v>
+        <v>3569</v>
       </c>
       <c r="R20" s="37">
-        <v>229</v>
+        <v>9188</v>
       </c>
       <c r="S20" s="39">
-        <v>-141</v>
+        <v>-5619</v>
       </c>
       <c r="T20" s="41">
         <v>0</v>
       </c>
       <c r="U20" s="43">
-        <v>26</v>
+        <v>1019</v>
       </c>
       <c r="V20" s="45">
-        <v>-26</v>
+        <v>-1019</v>
       </c>
       <c r="W20" s="47">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="X20" s="49">
         <v>0</v>
       </c>
       <c r="Y20" s="51">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="Z20" s="53">
-        <v>172</v>
+        <v>6939</v>
       </c>
       <c r="AA20" s="55">
-        <v>334</v>
+        <v>13413</v>
       </c>
       <c r="AB20" s="57">
-        <v>-162</v>
+        <v>-6475</v>
       </c>
       <c r="AC20" s="59">
-        <v>103</v>
+        <v>4155</v>
       </c>
       <c r="AD20" s="61">
-        <v>132</v>
+        <v>5312</v>
       </c>
       <c r="AE20" s="63">
-        <v>-30</v>
+        <v>-1156</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3655,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>21</v>
+        <v>866</v>
       </c>
       <c r="AJ20" s="73">
-        <v>27</v>
+        <v>1101</v>
       </c>
       <c r="AK20" s="75">
-        <v>-6</v>
+        <v>-235</v>
       </c>
       <c r="AL20" s="77">
-        <v>8356</v>
+        <v>337626</v>
       </c>
     </row>
     <row r="21">
@@ -3672,94 +3672,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>2498</v>
+        <v>90602</v>
       </c>
       <c r="C21" s="7">
-        <v>2225</v>
+        <v>80651</v>
       </c>
       <c r="D21" s="9">
-        <v>273</v>
+        <v>9951</v>
       </c>
       <c r="E21" s="11">
-        <v>3921</v>
+        <v>142715</v>
       </c>
       <c r="F21" s="13">
-        <v>3805</v>
+        <v>139226</v>
       </c>
       <c r="G21" s="15">
-        <v>115</v>
+        <v>3489</v>
       </c>
       <c r="H21" s="17">
-        <v>655</v>
+        <v>24120</v>
       </c>
       <c r="I21" s="19">
-        <v>1023</v>
+        <v>36796</v>
       </c>
       <c r="J21" s="21">
-        <v>-368</v>
+        <v>-12676</v>
       </c>
       <c r="K21" s="23">
-        <v>197</v>
+        <v>7152</v>
       </c>
       <c r="L21" s="25">
-        <v>255</v>
+        <v>9256</v>
       </c>
       <c r="M21" s="27">
-        <v>-57</v>
+        <v>-2105</v>
       </c>
       <c r="N21" s="29">
-        <v>26</v>
+        <v>934</v>
       </c>
       <c r="O21" s="31">
-        <v>54</v>
+        <v>1910</v>
       </c>
       <c r="P21" s="33">
-        <v>-28</v>
+        <v>-976</v>
       </c>
       <c r="Q21" s="35">
-        <v>134</v>
+        <v>5004</v>
       </c>
       <c r="R21" s="37">
-        <v>178</v>
+        <v>6373</v>
       </c>
       <c r="S21" s="39">
-        <v>-44</v>
+        <v>-1370</v>
       </c>
       <c r="T21" s="41">
-        <v>26</v>
+        <v>975</v>
       </c>
       <c r="U21" s="43">
         <v>0</v>
       </c>
       <c r="V21" s="45">
-        <v>26</v>
+        <v>975</v>
       </c>
       <c r="W21" s="47">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="X21" s="49">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="Y21" s="51">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="Z21" s="53">
-        <v>195</v>
+        <v>7167</v>
       </c>
       <c r="AA21" s="55">
-        <v>433</v>
+        <v>15473</v>
       </c>
       <c r="AB21" s="57">
-        <v>-237</v>
+        <v>-8306</v>
       </c>
       <c r="AC21" s="59">
-        <v>76</v>
+        <v>2847</v>
       </c>
       <c r="AD21" s="61">
-        <v>102</v>
+        <v>3728</v>
       </c>
       <c r="AE21" s="63">
-        <v>-27</v>
+        <v>-881</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3771,16 +3771,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="AJ21" s="73">
-        <v>28</v>
+        <v>1004</v>
       </c>
       <c r="AK21" s="75">
-        <v>-21</v>
+        <v>-764</v>
       </c>
       <c r="AL21" s="77">
-        <v>7081</v>
+        <v>257677</v>
       </c>
     </row>
     <row r="22">
@@ -3788,94 +3788,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>2449</v>
+        <v>95364</v>
       </c>
       <c r="C22" s="7">
-        <v>3361</v>
+        <v>134327</v>
       </c>
       <c r="D22" s="9">
-        <v>-912</v>
+        <v>-38964</v>
       </c>
       <c r="E22" s="11">
-        <v>8223</v>
+        <v>340951</v>
       </c>
       <c r="F22" s="13">
-        <v>5380</v>
+        <v>221272</v>
       </c>
       <c r="G22" s="15">
-        <v>2843</v>
+        <v>119678</v>
       </c>
       <c r="H22" s="17">
-        <v>660</v>
+        <v>26247</v>
       </c>
       <c r="I22" s="19">
-        <v>2576</v>
+        <v>106310</v>
       </c>
       <c r="J22" s="21">
-        <v>-1917</v>
+        <v>-80063</v>
       </c>
       <c r="K22" s="23">
-        <v>213</v>
+        <v>8583</v>
       </c>
       <c r="L22" s="25">
-        <v>363</v>
+        <v>15435</v>
       </c>
       <c r="M22" s="27">
-        <v>-151</v>
+        <v>-6852</v>
       </c>
       <c r="N22" s="29">
-        <v>67</v>
+        <v>2556</v>
       </c>
       <c r="O22" s="31">
-        <v>186</v>
+        <v>7575</v>
       </c>
       <c r="P22" s="33">
-        <v>-119</v>
+        <v>-5019</v>
       </c>
       <c r="Q22" s="35">
-        <v>85</v>
+        <v>3277</v>
       </c>
       <c r="R22" s="37">
-        <v>1142</v>
+        <v>47522</v>
       </c>
       <c r="S22" s="39">
-        <v>-1057</v>
+        <v>-44245</v>
       </c>
       <c r="T22" s="41">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="U22" s="43">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="V22" s="45">
-        <v>-5</v>
+        <v>-159</v>
       </c>
       <c r="W22" s="47">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X22" s="49">
-        <v>14</v>
+        <v>572</v>
       </c>
       <c r="Y22" s="51">
-        <v>-13</v>
+        <v>-556</v>
       </c>
       <c r="Z22" s="53">
-        <v>233</v>
+        <v>9398</v>
       </c>
       <c r="AA22" s="55">
-        <v>742</v>
+        <v>29795</v>
       </c>
       <c r="AB22" s="57">
-        <v>-509</v>
+        <v>-20398</v>
       </c>
       <c r="AC22" s="59">
-        <v>60</v>
+        <v>2389</v>
       </c>
       <c r="AD22" s="61">
-        <v>124</v>
+        <v>5223</v>
       </c>
       <c r="AE22" s="63">
-        <v>-63</v>
+        <v>-2835</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>43</v>
+        <v>1727</v>
       </c>
       <c r="AJ22" s="73">
-        <v>57</v>
+        <v>2379</v>
       </c>
       <c r="AK22" s="75">
-        <v>-14</v>
+        <v>-652</v>
       </c>
       <c r="AL22" s="77">
-        <v>11374</v>
+        <v>464288</v>
       </c>
     </row>
     <row r="23">
@@ -3904,58 +3904,58 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>3016</v>
+        <v>150717</v>
       </c>
       <c r="C23" s="7">
-        <v>3053</v>
+        <v>149493</v>
       </c>
       <c r="D23" s="9">
-        <v>-36</v>
+        <v>1225</v>
       </c>
       <c r="E23" s="11">
-        <v>10199</v>
+        <v>499725</v>
       </c>
       <c r="F23" s="13">
-        <v>9799</v>
+        <v>486280</v>
       </c>
       <c r="G23" s="15">
-        <v>400</v>
+        <v>13445</v>
       </c>
       <c r="H23" s="17">
-        <v>1566</v>
+        <v>78059</v>
       </c>
       <c r="I23" s="19">
-        <v>1927</v>
+        <v>92568</v>
       </c>
       <c r="J23" s="21">
-        <v>-361</v>
+        <v>-14509</v>
       </c>
       <c r="K23" s="23">
-        <v>391</v>
+        <v>19332</v>
       </c>
       <c r="L23" s="25">
-        <v>350</v>
+        <v>17014</v>
       </c>
       <c r="M23" s="27">
-        <v>41</v>
+        <v>2318</v>
       </c>
       <c r="N23" s="29">
-        <v>114</v>
+        <v>5781</v>
       </c>
       <c r="O23" s="31">
-        <v>137</v>
+        <v>6452</v>
       </c>
       <c r="P23" s="33">
-        <v>-23</v>
+        <v>-671</v>
       </c>
       <c r="Q23" s="35">
-        <v>495</v>
+        <v>24999</v>
       </c>
       <c r="R23" s="37">
-        <v>651</v>
+        <v>31427</v>
       </c>
       <c r="S23" s="39">
-        <v>-156</v>
+        <v>-6429</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
@@ -3967,31 +3967,31 @@
         <v>0</v>
       </c>
       <c r="W23" s="47">
-        <v>35</v>
+        <v>1706</v>
       </c>
       <c r="X23" s="49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y23" s="51">
-        <v>35</v>
+        <v>1701</v>
       </c>
       <c r="Z23" s="53">
-        <v>424</v>
+        <v>21025</v>
       </c>
       <c r="AA23" s="55">
-        <v>681</v>
+        <v>32474</v>
       </c>
       <c r="AB23" s="57">
-        <v>-257</v>
+        <v>-11449</v>
       </c>
       <c r="AC23" s="59">
-        <v>106</v>
+        <v>5216</v>
       </c>
       <c r="AD23" s="61">
-        <v>107</v>
+        <v>5195</v>
       </c>
       <c r="AE23" s="63">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -4003,16 +4003,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>131</v>
+        <v>6506</v>
       </c>
       <c r="AJ23" s="73">
-        <v>134</v>
+        <v>6667</v>
       </c>
       <c r="AK23" s="75">
-        <v>-3</v>
+        <v>-161</v>
       </c>
       <c r="AL23" s="77">
-        <v>14913</v>
+        <v>735008</v>
       </c>
     </row>
     <row r="24">
@@ -4020,94 +4020,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>3526</v>
+        <v>186459</v>
       </c>
       <c r="C24" s="7">
-        <v>3867</v>
+        <v>203071</v>
       </c>
       <c r="D24" s="9">
-        <v>-341</v>
+        <v>-16612</v>
       </c>
       <c r="E24" s="11">
-        <v>11549</v>
+        <v>608720</v>
       </c>
       <c r="F24" s="13">
-        <v>11788</v>
+        <v>623789</v>
       </c>
       <c r="G24" s="15">
-        <v>-238</v>
+        <v>-15070</v>
       </c>
       <c r="H24" s="17">
-        <v>1768</v>
+        <v>93506</v>
       </c>
       <c r="I24" s="19">
-        <v>1159</v>
+        <v>60292</v>
       </c>
       <c r="J24" s="21">
-        <v>609</v>
+        <v>33214</v>
       </c>
       <c r="K24" s="23">
-        <v>459</v>
+        <v>24084</v>
       </c>
       <c r="L24" s="25">
-        <v>311</v>
+        <v>16187</v>
       </c>
       <c r="M24" s="27">
-        <v>148</v>
+        <v>7897</v>
       </c>
       <c r="N24" s="29">
-        <v>65</v>
+        <v>3459</v>
       </c>
       <c r="O24" s="31">
-        <v>51</v>
+        <v>2625</v>
       </c>
       <c r="P24" s="33">
-        <v>14</v>
+        <v>835</v>
       </c>
       <c r="Q24" s="35">
-        <v>308</v>
+        <v>16578</v>
       </c>
       <c r="R24" s="37">
-        <v>273</v>
+        <v>14100</v>
       </c>
       <c r="S24" s="39">
-        <v>35</v>
+        <v>2479</v>
       </c>
       <c r="T24" s="41">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="U24" s="43">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="V24" s="45">
-        <v>-1</v>
+        <v>-68</v>
       </c>
       <c r="W24" s="47">
-        <v>17</v>
+        <v>902</v>
       </c>
       <c r="X24" s="49">
-        <v>52</v>
+        <v>2699</v>
       </c>
       <c r="Y24" s="51">
-        <v>-35</v>
+        <v>-1798</v>
       </c>
       <c r="Z24" s="53">
-        <v>799</v>
+        <v>42010</v>
       </c>
       <c r="AA24" s="55">
-        <v>361</v>
+        <v>18865</v>
       </c>
       <c r="AB24" s="57">
-        <v>438</v>
+        <v>23145</v>
       </c>
       <c r="AC24" s="59">
-        <v>119</v>
+        <v>6420</v>
       </c>
       <c r="AD24" s="61">
-        <v>109</v>
+        <v>5696</v>
       </c>
       <c r="AE24" s="63">
-        <v>10</v>
+        <v>725</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4119,16 +4119,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>132</v>
+        <v>7017</v>
       </c>
       <c r="AJ24" s="73">
-        <v>161</v>
+        <v>8548</v>
       </c>
       <c r="AK24" s="75">
-        <v>-29</v>
+        <v>-1532</v>
       </c>
       <c r="AL24" s="77">
-        <v>16976</v>
+        <v>895701</v>
       </c>
     </row>
     <row r="25">
@@ -4136,94 +4136,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>4991</v>
+        <v>259599</v>
       </c>
       <c r="C25" s="7">
-        <v>3871</v>
+        <v>197551</v>
       </c>
       <c r="D25" s="9">
-        <v>1120</v>
+        <v>62048</v>
       </c>
       <c r="E25" s="11">
-        <v>11827</v>
+        <v>611231</v>
       </c>
       <c r="F25" s="13">
-        <v>13380</v>
+        <v>696284</v>
       </c>
       <c r="G25" s="15">
-        <v>-1553</v>
+        <v>-85053</v>
       </c>
       <c r="H25" s="17">
-        <v>1435</v>
+        <v>73650</v>
       </c>
       <c r="I25" s="19">
-        <v>1040</v>
+        <v>52602</v>
       </c>
       <c r="J25" s="21">
-        <v>395</v>
+        <v>21048</v>
       </c>
       <c r="K25" s="23">
-        <v>373</v>
+        <v>19004</v>
       </c>
       <c r="L25" s="25">
-        <v>267</v>
+        <v>13545</v>
       </c>
       <c r="M25" s="27">
-        <v>107</v>
+        <v>5459</v>
       </c>
       <c r="N25" s="29">
-        <v>112</v>
+        <v>5932</v>
       </c>
       <c r="O25" s="31">
-        <v>76</v>
+        <v>3859</v>
       </c>
       <c r="P25" s="33">
-        <v>36</v>
+        <v>2073</v>
       </c>
       <c r="Q25" s="35">
-        <v>329</v>
+        <v>16847</v>
       </c>
       <c r="R25" s="37">
-        <v>240</v>
+        <v>12057</v>
       </c>
       <c r="S25" s="39">
-        <v>89</v>
+        <v>4790</v>
       </c>
       <c r="T25" s="41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U25" s="43">
         <v>0</v>
       </c>
       <c r="V25" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W25" s="47">
-        <v>34</v>
+        <v>1716</v>
       </c>
       <c r="X25" s="49">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="Y25" s="51">
-        <v>32</v>
+        <v>1642</v>
       </c>
       <c r="Z25" s="53">
-        <v>519</v>
+        <v>26633</v>
       </c>
       <c r="AA25" s="55">
-        <v>404</v>
+        <v>20476</v>
       </c>
       <c r="AB25" s="57">
-        <v>115</v>
+        <v>6157</v>
       </c>
       <c r="AC25" s="59">
-        <v>69</v>
+        <v>3513</v>
       </c>
       <c r="AD25" s="61">
-        <v>52</v>
+        <v>2590</v>
       </c>
       <c r="AE25" s="63">
-        <v>17</v>
+        <v>923</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4235,16 +4235,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>108</v>
+        <v>5675</v>
       </c>
       <c r="AJ25" s="73">
-        <v>71</v>
+        <v>3719</v>
       </c>
       <c r="AK25" s="75">
-        <v>38</v>
+        <v>1956</v>
       </c>
       <c r="AL25" s="77">
-        <v>18362</v>
+        <v>950156</v>
       </c>
     </row>
     <row r="26">
@@ -4252,94 +4252,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>3921</v>
+        <v>202950</v>
       </c>
       <c r="C26" s="7">
-        <v>4554</v>
+        <v>235571</v>
       </c>
       <c r="D26" s="9">
-        <v>-634</v>
+        <v>-32620</v>
       </c>
       <c r="E26" s="11">
-        <v>13723</v>
+        <v>712470</v>
       </c>
       <c r="F26" s="13">
-        <v>13260</v>
+        <v>689136</v>
       </c>
       <c r="G26" s="15">
-        <v>464</v>
+        <v>23333</v>
       </c>
       <c r="H26" s="17">
-        <v>1528</v>
+        <v>79415</v>
       </c>
       <c r="I26" s="19">
-        <v>1356</v>
+        <v>70042</v>
       </c>
       <c r="J26" s="21">
-        <v>172</v>
+        <v>9373</v>
       </c>
       <c r="K26" s="23">
-        <v>267</v>
+        <v>13706</v>
       </c>
       <c r="L26" s="25">
-        <v>363</v>
+        <v>18752</v>
       </c>
       <c r="M26" s="27">
-        <v>-96</v>
+        <v>-5046</v>
       </c>
       <c r="N26" s="29">
-        <v>117</v>
+        <v>6075</v>
       </c>
       <c r="O26" s="31">
-        <v>140</v>
+        <v>7214</v>
       </c>
       <c r="P26" s="33">
-        <v>-23</v>
+        <v>-1139</v>
       </c>
       <c r="Q26" s="35">
-        <v>237</v>
+        <v>12292</v>
       </c>
       <c r="R26" s="37">
-        <v>280</v>
+        <v>14423</v>
       </c>
       <c r="S26" s="39">
-        <v>-43</v>
+        <v>-2131</v>
       </c>
       <c r="T26" s="41">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="U26" s="43">
         <v>0</v>
       </c>
       <c r="V26" s="45">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="W26" s="47">
-        <v>18</v>
+        <v>915</v>
       </c>
       <c r="X26" s="49">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="Y26" s="51">
-        <v>14</v>
+        <v>699</v>
       </c>
       <c r="Z26" s="53">
-        <v>851</v>
+        <v>44468</v>
       </c>
       <c r="AA26" s="55">
-        <v>399</v>
+        <v>20692</v>
       </c>
       <c r="AB26" s="57">
-        <v>452</v>
+        <v>23776</v>
       </c>
       <c r="AC26" s="59">
-        <v>36</v>
+        <v>1876</v>
       </c>
       <c r="AD26" s="61">
-        <v>169</v>
+        <v>8745</v>
       </c>
       <c r="AE26" s="63">
-        <v>-133</v>
+        <v>-6869</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4351,16 +4351,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>77</v>
+        <v>3976</v>
       </c>
       <c r="AJ26" s="73">
-        <v>78</v>
+        <v>4061</v>
       </c>
       <c r="AK26" s="75">
-        <v>-1</v>
+        <v>-86</v>
       </c>
       <c r="AL26" s="77">
-        <v>19249</v>
+        <v>998810</v>
       </c>
     </row>
     <row r="27">
@@ -4368,94 +4368,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>4899</v>
+        <v>248290</v>
       </c>
       <c r="C27" s="7">
-        <v>3197</v>
+        <v>157036</v>
       </c>
       <c r="D27" s="9">
-        <v>1702</v>
+        <v>91254</v>
       </c>
       <c r="E27" s="11">
-        <v>13297</v>
+        <v>666532</v>
       </c>
       <c r="F27" s="13">
-        <v>16140</v>
+        <v>817022</v>
       </c>
       <c r="G27" s="15">
-        <v>-2843</v>
+        <v>-150490</v>
       </c>
       <c r="H27" s="17">
-        <v>2072</v>
+        <v>103951</v>
       </c>
       <c r="I27" s="19">
-        <v>928</v>
+        <v>44572</v>
       </c>
       <c r="J27" s="21">
-        <v>1144</v>
+        <v>59379</v>
       </c>
       <c r="K27" s="23">
-        <v>491</v>
+        <v>24150</v>
       </c>
       <c r="L27" s="25">
-        <v>273</v>
+        <v>13318</v>
       </c>
       <c r="M27" s="27">
-        <v>218</v>
+        <v>10832</v>
       </c>
       <c r="N27" s="29">
-        <v>120</v>
+        <v>6219</v>
       </c>
       <c r="O27" s="31">
-        <v>62</v>
+        <v>2982</v>
       </c>
       <c r="P27" s="33">
-        <v>59</v>
+        <v>3237</v>
       </c>
       <c r="Q27" s="35">
-        <v>460</v>
+        <v>23015</v>
       </c>
       <c r="R27" s="37">
+        <v>5030</v>
+      </c>
+      <c r="S27" s="39">
+        <v>17985</v>
+      </c>
+      <c r="T27" s="41">
         <v>103</v>
       </c>
-      <c r="S27" s="39">
-        <v>358</v>
-      </c>
-      <c r="T27" s="41">
-        <v>2</v>
-      </c>
       <c r="U27" s="43">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="V27" s="45">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="W27" s="47">
-        <v>17</v>
+        <v>855</v>
       </c>
       <c r="X27" s="49">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y27" s="51">
-        <v>17</v>
+        <v>842</v>
       </c>
       <c r="Z27" s="53">
-        <v>831</v>
+        <v>41989</v>
       </c>
       <c r="AA27" s="55">
-        <v>414</v>
+        <v>19445</v>
       </c>
       <c r="AB27" s="57">
-        <v>417</v>
+        <v>22545</v>
       </c>
       <c r="AC27" s="59">
-        <v>150</v>
+        <v>7619</v>
       </c>
       <c r="AD27" s="61">
-        <v>75</v>
+        <v>3674</v>
       </c>
       <c r="AE27" s="63">
-        <v>76</v>
+        <v>3945</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4467,16 +4467,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>81</v>
+        <v>4127</v>
       </c>
       <c r="AJ27" s="73">
-        <v>83</v>
+        <v>4271</v>
       </c>
       <c r="AK27" s="75">
-        <v>-2</v>
+        <v>-143</v>
       </c>
       <c r="AL27" s="77">
-        <v>20348</v>
+        <v>1022901</v>
       </c>
     </row>
     <row r="28">
@@ -4484,94 +4484,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>4239</v>
+        <v>213107</v>
       </c>
       <c r="C28" s="7">
-        <v>4229</v>
+        <v>210005</v>
       </c>
       <c r="D28" s="9">
-        <v>9</v>
+        <v>3102</v>
       </c>
       <c r="E28" s="11">
-        <v>18118</v>
+        <v>905425</v>
       </c>
       <c r="F28" s="13">
-        <v>18831</v>
+        <v>945321</v>
       </c>
       <c r="G28" s="15">
-        <v>-713</v>
+        <v>-39895</v>
       </c>
       <c r="H28" s="17">
-        <v>1550</v>
+        <v>77824</v>
       </c>
       <c r="I28" s="19">
-        <v>877</v>
+        <v>42665</v>
       </c>
       <c r="J28" s="21">
-        <v>673</v>
+        <v>35159</v>
       </c>
       <c r="K28" s="23">
-        <v>328</v>
+        <v>16320</v>
       </c>
       <c r="L28" s="25">
-        <v>272</v>
+        <v>13312</v>
       </c>
       <c r="M28" s="27">
-        <v>56</v>
+        <v>3007</v>
       </c>
       <c r="N28" s="29">
-        <v>111</v>
+        <v>5654</v>
       </c>
       <c r="O28" s="31">
-        <v>24</v>
+        <v>1152</v>
       </c>
       <c r="P28" s="33">
-        <v>88</v>
+        <v>4503</v>
       </c>
       <c r="Q28" s="35">
-        <v>510</v>
+        <v>25565</v>
       </c>
       <c r="R28" s="37">
-        <v>283</v>
+        <v>13524</v>
       </c>
       <c r="S28" s="39">
-        <v>228</v>
+        <v>12041</v>
       </c>
       <c r="T28" s="41">
         <v>0</v>
       </c>
       <c r="U28" s="43">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="V28" s="45">
-        <v>-1</v>
+        <v>-52</v>
       </c>
       <c r="W28" s="47">
-        <v>22</v>
+        <v>1112</v>
       </c>
       <c r="X28" s="49">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="Y28" s="51">
-        <v>18</v>
+        <v>926</v>
       </c>
       <c r="Z28" s="53">
-        <v>446</v>
+        <v>22367</v>
       </c>
       <c r="AA28" s="55">
-        <v>197</v>
+        <v>9653</v>
       </c>
       <c r="AB28" s="57">
-        <v>249</v>
+        <v>12714</v>
       </c>
       <c r="AC28" s="59">
-        <v>132</v>
+        <v>6806</v>
       </c>
       <c r="AD28" s="61">
-        <v>97</v>
+        <v>4786</v>
       </c>
       <c r="AE28" s="63">
-        <v>35</v>
+        <v>2020</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4583,16 +4583,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>121</v>
+        <v>6113</v>
       </c>
       <c r="AJ28" s="73">
-        <v>90</v>
+        <v>4478</v>
       </c>
       <c r="AK28" s="75">
-        <v>30</v>
+        <v>1634</v>
       </c>
       <c r="AL28" s="77">
-        <v>24028</v>
+        <v>1202470</v>
       </c>
     </row>
     <row r="29">
@@ -4600,94 +4600,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>5441</v>
+        <v>263100</v>
       </c>
       <c r="C29" s="7">
-        <v>6029</v>
+        <v>289019</v>
       </c>
       <c r="D29" s="9">
-        <v>-589</v>
+        <v>-25919</v>
       </c>
       <c r="E29" s="11">
-        <v>20983</v>
+        <v>1012423</v>
       </c>
       <c r="F29" s="13">
-        <v>22755</v>
+        <v>1099679</v>
       </c>
       <c r="G29" s="15">
-        <v>-1771</v>
+        <v>-87256</v>
       </c>
       <c r="H29" s="17">
-        <v>3620</v>
+        <v>173887</v>
       </c>
       <c r="I29" s="19">
-        <v>1261</v>
+        <v>60701</v>
       </c>
       <c r="J29" s="21">
-        <v>2359</v>
+        <v>113187</v>
       </c>
       <c r="K29" s="23">
-        <v>320</v>
+        <v>15400</v>
       </c>
       <c r="L29" s="25">
-        <v>349</v>
+        <v>16702</v>
       </c>
       <c r="M29" s="27">
-        <v>-28</v>
+        <v>-1301</v>
       </c>
       <c r="N29" s="29">
-        <v>259</v>
+        <v>12373</v>
       </c>
       <c r="O29" s="31">
-        <v>56</v>
+        <v>2709</v>
       </c>
       <c r="P29" s="33">
-        <v>203</v>
+        <v>9664</v>
       </c>
       <c r="Q29" s="35">
-        <v>803</v>
+        <v>38258</v>
       </c>
       <c r="R29" s="37">
-        <v>384</v>
+        <v>18438</v>
       </c>
       <c r="S29" s="39">
-        <v>419</v>
+        <v>19820</v>
       </c>
       <c r="T29" s="41">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="U29" s="43">
         <v>0</v>
       </c>
       <c r="V29" s="45">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="W29" s="47">
-        <v>57</v>
+        <v>2673</v>
       </c>
       <c r="X29" s="49">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="Y29" s="51">
-        <v>56</v>
+        <v>2631</v>
       </c>
       <c r="Z29" s="53">
-        <v>1959</v>
+        <v>94296</v>
       </c>
       <c r="AA29" s="55">
-        <v>237</v>
+        <v>11527</v>
       </c>
       <c r="AB29" s="57">
-        <v>1721</v>
+        <v>82770</v>
       </c>
       <c r="AC29" s="59">
-        <v>220</v>
+        <v>10803</v>
       </c>
       <c r="AD29" s="61">
-        <v>234</v>
+        <v>11283</v>
       </c>
       <c r="AE29" s="63">
-        <v>-14</v>
+        <v>-480</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4699,16 +4699,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>101</v>
+        <v>4829</v>
       </c>
       <c r="AJ29" s="73">
-        <v>100</v>
+        <v>4841</v>
       </c>
       <c r="AK29" s="75">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="AL29" s="77">
-        <v>30145</v>
+        <v>1454240</v>
       </c>
     </row>
     <row r="30">
@@ -4716,94 +4716,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>3849</v>
+        <v>156879</v>
       </c>
       <c r="C30" s="7">
-        <v>6539</v>
+        <v>266090</v>
       </c>
       <c r="D30" s="9">
-        <v>-2690</v>
+        <v>-109210</v>
       </c>
       <c r="E30" s="11">
-        <v>14233</v>
+        <v>579958</v>
       </c>
       <c r="F30" s="13">
-        <v>11238</v>
+        <v>459232</v>
       </c>
       <c r="G30" s="15">
-        <v>2995</v>
+        <v>120725</v>
       </c>
       <c r="H30" s="17">
-        <v>909</v>
+        <v>37507</v>
       </c>
       <c r="I30" s="19">
-        <v>1235</v>
+        <v>49839</v>
       </c>
       <c r="J30" s="21">
-        <v>-325</v>
+        <v>-12332</v>
       </c>
       <c r="K30" s="23">
-        <v>308</v>
+        <v>12496</v>
       </c>
       <c r="L30" s="25">
-        <v>282</v>
+        <v>11406</v>
       </c>
       <c r="M30" s="27">
-        <v>26</v>
+        <v>1090</v>
       </c>
       <c r="N30" s="29">
-        <v>45</v>
+        <v>1872</v>
       </c>
       <c r="O30" s="31">
-        <v>91</v>
+        <v>3717</v>
       </c>
       <c r="P30" s="33">
-        <v>-46</v>
+        <v>-1845</v>
       </c>
       <c r="Q30" s="35">
-        <v>255</v>
+        <v>10641</v>
       </c>
       <c r="R30" s="37">
-        <v>303</v>
+        <v>12306</v>
       </c>
       <c r="S30" s="39">
-        <v>-48</v>
+        <v>-1665</v>
       </c>
       <c r="T30" s="41">
         <v>0</v>
       </c>
       <c r="U30" s="43">
-        <v>9</v>
+        <v>392</v>
       </c>
       <c r="V30" s="45">
-        <v>-9</v>
+        <v>-392</v>
       </c>
       <c r="W30" s="47">
-        <v>38</v>
+        <v>1607</v>
       </c>
       <c r="X30" s="49">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="Y30" s="51">
-        <v>35</v>
+        <v>1465</v>
       </c>
       <c r="Z30" s="53">
-        <v>230</v>
+        <v>9562</v>
       </c>
       <c r="AA30" s="55">
-        <v>416</v>
+        <v>16650</v>
       </c>
       <c r="AB30" s="57">
-        <v>-186</v>
+        <v>-7087</v>
       </c>
       <c r="AC30" s="59">
-        <v>33</v>
+        <v>1328</v>
       </c>
       <c r="AD30" s="61">
-        <v>129</v>
+        <v>5226</v>
       </c>
       <c r="AE30" s="63">
-        <v>-97</v>
+        <v>-3898</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4815,16 +4815,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>55</v>
+        <v>2230</v>
       </c>
       <c r="AJ30" s="73">
-        <v>35</v>
+        <v>1413</v>
       </c>
       <c r="AK30" s="75">
-        <v>20</v>
+        <v>817</v>
       </c>
       <c r="AL30" s="77">
-        <v>19046</v>
+        <v>776574</v>
       </c>
     </row>
     <row r="31">
@@ -4832,94 +4832,94 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>4517</v>
+        <v>229598</v>
       </c>
       <c r="C31" s="7">
-        <v>6432</v>
+        <v>319322</v>
       </c>
       <c r="D31" s="9">
-        <v>-1915</v>
+        <v>-89724</v>
       </c>
       <c r="E31" s="11">
-        <v>14265</v>
+        <v>702437</v>
       </c>
       <c r="F31" s="13">
-        <v>11269</v>
+        <v>561755</v>
       </c>
       <c r="G31" s="15">
-        <v>2995</v>
+        <v>140683</v>
       </c>
       <c r="H31" s="17">
-        <v>634</v>
+        <v>32012</v>
       </c>
       <c r="I31" s="19">
-        <v>1652</v>
+        <v>79976</v>
       </c>
       <c r="J31" s="21">
-        <v>-1019</v>
+        <v>-47964</v>
       </c>
       <c r="K31" s="23">
-        <v>213</v>
+        <v>10671</v>
       </c>
       <c r="L31" s="25">
-        <v>244</v>
+        <v>11886</v>
       </c>
       <c r="M31" s="27">
-        <v>-31</v>
+        <v>-1214</v>
       </c>
       <c r="N31" s="29">
-        <v>71</v>
+        <v>3594</v>
       </c>
       <c r="O31" s="31">
-        <v>65</v>
+        <v>3066</v>
       </c>
       <c r="P31" s="33">
-        <v>6</v>
+        <v>528</v>
       </c>
       <c r="Q31" s="35">
-        <v>182</v>
+        <v>9270</v>
       </c>
       <c r="R31" s="37">
-        <v>393</v>
+        <v>19007</v>
       </c>
       <c r="S31" s="39">
-        <v>-210</v>
+        <v>-9737</v>
       </c>
       <c r="T31" s="41">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="U31" s="43">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="V31" s="45">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="W31" s="47">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="X31" s="49">
-        <v>6</v>
+        <v>295</v>
       </c>
       <c r="Y31" s="51">
-        <v>-4</v>
+        <v>-181</v>
       </c>
       <c r="Z31" s="53">
-        <v>132</v>
+        <v>6714</v>
       </c>
       <c r="AA31" s="55">
-        <v>817</v>
+        <v>39218</v>
       </c>
       <c r="AB31" s="57">
-        <v>-684</v>
+        <v>-32504</v>
       </c>
       <c r="AC31" s="59">
-        <v>31</v>
+        <v>1547</v>
       </c>
       <c r="AD31" s="61">
-        <v>126</v>
+        <v>6434</v>
       </c>
       <c r="AE31" s="63">
-        <v>-95</v>
+        <v>-4888</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4931,16 +4931,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>72</v>
+        <v>3534</v>
       </c>
       <c r="AJ31" s="73">
-        <v>134</v>
+        <v>6528</v>
       </c>
       <c r="AK31" s="75">
-        <v>-61</v>
+        <v>-2994</v>
       </c>
       <c r="AL31" s="77">
-        <v>19487</v>
+        <v>967581</v>
       </c>
     </row>
     <row r="32">
@@ -4948,94 +4948,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>2757</v>
+        <v>137518</v>
       </c>
       <c r="C32" s="7">
-        <v>3258</v>
+        <v>162517</v>
       </c>
       <c r="D32" s="9">
-        <v>-500</v>
+        <v>-24999</v>
       </c>
       <c r="E32" s="11">
-        <v>11964</v>
+        <v>597440</v>
       </c>
       <c r="F32" s="13">
-        <v>11002</v>
+        <v>551749</v>
       </c>
       <c r="G32" s="15">
-        <v>962</v>
+        <v>45690</v>
       </c>
       <c r="H32" s="17">
-        <v>1284</v>
+        <v>64249</v>
       </c>
       <c r="I32" s="19">
-        <v>1716</v>
+        <v>83589</v>
       </c>
       <c r="J32" s="21">
-        <v>-433</v>
+        <v>-19340</v>
       </c>
       <c r="K32" s="23">
-        <v>329</v>
+        <v>16492</v>
       </c>
       <c r="L32" s="25">
-        <v>244</v>
+        <v>12095</v>
       </c>
       <c r="M32" s="27">
-        <v>84</v>
+        <v>4397</v>
       </c>
       <c r="N32" s="29">
-        <v>20</v>
+        <v>1021</v>
       </c>
       <c r="O32" s="31">
-        <v>83</v>
+        <v>4121</v>
       </c>
       <c r="P32" s="33">
-        <v>-63</v>
+        <v>-3100</v>
       </c>
       <c r="Q32" s="35">
-        <v>186</v>
+        <v>9474</v>
       </c>
       <c r="R32" s="37">
-        <v>287</v>
+        <v>13903</v>
       </c>
       <c r="S32" s="39">
-        <v>-101</v>
+        <v>-4429</v>
       </c>
       <c r="T32" s="41">
         <v>0</v>
       </c>
       <c r="U32" s="43">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="V32" s="45">
-        <v>-3</v>
+        <v>-138</v>
       </c>
       <c r="W32" s="47">
-        <v>19</v>
+        <v>954</v>
       </c>
       <c r="X32" s="49">
-        <v>6</v>
+        <v>302</v>
       </c>
       <c r="Y32" s="51">
-        <v>13</v>
+        <v>652</v>
       </c>
       <c r="Z32" s="53">
-        <v>700</v>
+        <v>34860</v>
       </c>
       <c r="AA32" s="55">
-        <v>1027</v>
+        <v>49890</v>
       </c>
       <c r="AB32" s="57">
-        <v>-327</v>
+        <v>-15030</v>
       </c>
       <c r="AC32" s="59">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="AD32" s="61">
-        <v>65</v>
+        <v>3140</v>
       </c>
       <c r="AE32" s="63">
-        <v>-36</v>
+        <v>-1692</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5047,16 +5047,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>70</v>
+        <v>3528</v>
       </c>
       <c r="AJ32" s="73">
-        <v>100</v>
+        <v>4879</v>
       </c>
       <c r="AK32" s="75">
-        <v>-29</v>
+        <v>-1352</v>
       </c>
       <c r="AL32" s="77">
-        <v>16076</v>
+        <v>802735</v>
       </c>
     </row>
     <row r="33">
@@ -5064,94 +5064,94 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
-        <v>3614</v>
+        <v>214902</v>
       </c>
       <c r="C33" s="7">
-        <v>3664</v>
+        <v>212829</v>
       </c>
       <c r="D33" s="9">
-        <v>-50</v>
+        <v>2073</v>
       </c>
       <c r="E33" s="11">
-        <v>16550</v>
+        <v>971727</v>
       </c>
       <c r="F33" s="13">
-        <v>15986</v>
+        <v>946012</v>
       </c>
       <c r="G33" s="15">
-        <v>564</v>
+        <v>25715</v>
       </c>
       <c r="H33" s="17">
-        <v>1062</v>
+        <v>63008</v>
       </c>
       <c r="I33" s="19">
-        <v>1527</v>
+        <v>87936</v>
       </c>
       <c r="J33" s="21">
-        <v>-466</v>
+        <v>-24928</v>
       </c>
       <c r="K33" s="23">
-        <v>413</v>
+        <v>24305</v>
       </c>
       <c r="L33" s="25">
-        <v>379</v>
+        <v>22193</v>
       </c>
       <c r="M33" s="27">
-        <v>34</v>
+        <v>2113</v>
       </c>
       <c r="N33" s="29">
-        <v>35</v>
+        <v>2116</v>
       </c>
       <c r="O33" s="31">
-        <v>59</v>
+        <v>3272</v>
       </c>
       <c r="P33" s="33">
-        <v>-24</v>
+        <v>-1156</v>
       </c>
       <c r="Q33" s="35">
-        <v>218</v>
+        <v>13137</v>
       </c>
       <c r="R33" s="37">
-        <v>377</v>
+        <v>21467</v>
       </c>
       <c r="S33" s="39">
-        <v>-158</v>
+        <v>-8330</v>
       </c>
       <c r="T33" s="41">
         <v>0</v>
       </c>
       <c r="U33" s="43">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="V33" s="45">
-        <v>-2</v>
+        <v>-89</v>
       </c>
       <c r="W33" s="47">
-        <v>24</v>
+        <v>1366</v>
       </c>
       <c r="X33" s="49">
-        <v>10</v>
+        <v>597</v>
       </c>
       <c r="Y33" s="51">
-        <v>14</v>
+        <v>770</v>
       </c>
       <c r="Z33" s="53">
-        <v>250</v>
+        <v>14899</v>
       </c>
       <c r="AA33" s="55">
-        <v>489</v>
+        <v>27657</v>
       </c>
       <c r="AB33" s="57">
-        <v>-240</v>
+        <v>-12758</v>
       </c>
       <c r="AC33" s="59">
-        <v>122</v>
+        <v>7184</v>
       </c>
       <c r="AD33" s="61">
-        <v>212</v>
+        <v>12662</v>
       </c>
       <c r="AE33" s="63">
-        <v>-90</v>
+        <v>-5478</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5163,16 +5163,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>72</v>
+        <v>4252</v>
       </c>
       <c r="AJ33" s="73">
-        <v>120</v>
+        <v>7111</v>
       </c>
       <c r="AK33" s="75">
-        <v>-49</v>
+        <v>-2859</v>
       </c>
       <c r="AL33" s="77">
-        <v>21297</v>
+        <v>1253888</v>
       </c>
     </row>
     <row r="34">
@@ -5180,94 +5180,94 @@
         <v>46</v>
       </c>
       <c r="B34" s="5">
-        <v>13606</v>
+        <v>756230</v>
       </c>
       <c r="C34" s="7">
-        <v>10317</v>
+        <v>587374</v>
       </c>
       <c r="D34" s="9">
-        <v>3290</v>
+        <v>168856</v>
       </c>
       <c r="E34" s="11">
-        <v>39386</v>
+        <v>2291337</v>
       </c>
       <c r="F34" s="13">
-        <v>43310</v>
+        <v>2496852</v>
       </c>
       <c r="G34" s="15">
-        <v>-3924</v>
+        <v>-205516</v>
       </c>
       <c r="H34" s="17">
-        <v>3429</v>
+        <v>194051</v>
       </c>
       <c r="I34" s="19">
-        <v>2876</v>
+        <v>161563</v>
       </c>
       <c r="J34" s="21">
-        <v>553</v>
+        <v>32488</v>
       </c>
       <c r="K34" s="23">
-        <v>867</v>
+        <v>49185</v>
       </c>
       <c r="L34" s="25">
-        <v>951</v>
+        <v>53750</v>
       </c>
       <c r="M34" s="27">
-        <v>-83</v>
+        <v>-4565</v>
       </c>
       <c r="N34" s="29">
-        <v>176</v>
+        <v>9814</v>
       </c>
       <c r="O34" s="31">
-        <v>287</v>
+        <v>15870</v>
       </c>
       <c r="P34" s="33">
-        <v>-111</v>
+        <v>-6056</v>
       </c>
       <c r="Q34" s="35">
-        <v>686</v>
+        <v>39439</v>
       </c>
       <c r="R34" s="37">
-        <v>389</v>
+        <v>22007</v>
       </c>
       <c r="S34" s="39">
-        <v>297</v>
+        <v>17432</v>
       </c>
       <c r="T34" s="41">
         <v>0</v>
       </c>
       <c r="U34" s="43">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="V34" s="45">
-        <v>-2</v>
+        <v>-100</v>
       </c>
       <c r="W34" s="47">
-        <v>36</v>
+        <v>2046</v>
       </c>
       <c r="X34" s="49">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="Y34" s="51">
-        <v>29</v>
+        <v>1690</v>
       </c>
       <c r="Z34" s="53">
-        <v>1013</v>
+        <v>57567</v>
       </c>
       <c r="AA34" s="55">
-        <v>462</v>
+        <v>25936</v>
       </c>
       <c r="AB34" s="57">
-        <v>552</v>
+        <v>31631</v>
       </c>
       <c r="AC34" s="59">
-        <v>651</v>
+        <v>35999</v>
       </c>
       <c r="AD34" s="61">
-        <v>779</v>
+        <v>43543</v>
       </c>
       <c r="AE34" s="63">
-        <v>-129</v>
+        <v>-7543</v>
       </c>
       <c r="AF34" s="65">
         <v>0</v>
@@ -5279,16 +5279,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="71">
-        <v>392</v>
+        <v>22243</v>
       </c>
       <c r="AJ34" s="73">
-        <v>310</v>
+        <v>18071</v>
       </c>
       <c r="AK34" s="75">
-        <v>82</v>
+        <v>4172</v>
       </c>
       <c r="AL34" s="77">
-        <v>56813</v>
+        <v>3263861</v>
       </c>
     </row>
     <row r="35">
@@ -5296,94 +5296,94 @@
         <v>47</v>
       </c>
       <c r="B35" s="5">
-        <v>6012</v>
+        <v>315065</v>
       </c>
       <c r="C35" s="7">
-        <v>5135</v>
+        <v>260009</v>
       </c>
       <c r="D35" s="9">
-        <v>877</v>
+        <v>55056</v>
       </c>
       <c r="E35" s="11">
-        <v>30011</v>
+        <v>1551092</v>
       </c>
       <c r="F35" s="13">
-        <v>31271</v>
+        <v>1624950</v>
       </c>
       <c r="G35" s="15">
-        <v>-1260</v>
+        <v>-73858</v>
       </c>
       <c r="H35" s="17">
-        <v>2901</v>
+        <v>148261</v>
       </c>
       <c r="I35" s="19">
-        <v>2505</v>
+        <v>128753</v>
       </c>
       <c r="J35" s="21">
-        <v>396</v>
+        <v>19508</v>
       </c>
       <c r="K35" s="23">
-        <v>388</v>
+        <v>20160</v>
       </c>
       <c r="L35" s="25">
-        <v>1200</v>
+        <v>62428</v>
       </c>
       <c r="M35" s="27">
-        <v>-811</v>
+        <v>-42268</v>
       </c>
       <c r="N35" s="29">
-        <v>242</v>
+        <v>12107</v>
       </c>
       <c r="O35" s="31">
-        <v>48</v>
+        <v>2319</v>
       </c>
       <c r="P35" s="33">
-        <v>194</v>
+        <v>9788</v>
       </c>
       <c r="Q35" s="35">
-        <v>687</v>
+        <v>34307</v>
       </c>
       <c r="R35" s="37">
-        <v>377</v>
+        <v>18734</v>
       </c>
       <c r="S35" s="39">
-        <v>310</v>
+        <v>15573</v>
       </c>
       <c r="T35" s="41">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="U35" s="43">
-        <v>5</v>
+        <v>271</v>
       </c>
       <c r="V35" s="45">
-        <v>-1</v>
+        <v>-79</v>
       </c>
       <c r="W35" s="47">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="X35" s="49">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="Y35" s="51">
-        <v>-3</v>
+        <v>-190</v>
       </c>
       <c r="Z35" s="53">
-        <v>1250</v>
+        <v>64515</v>
       </c>
       <c r="AA35" s="55">
-        <v>346</v>
+        <v>17706</v>
       </c>
       <c r="AB35" s="57">
-        <v>904</v>
+        <v>46809</v>
       </c>
       <c r="AC35" s="59">
-        <v>328</v>
+        <v>16866</v>
       </c>
       <c r="AD35" s="61">
-        <v>524</v>
+        <v>26991</v>
       </c>
       <c r="AE35" s="63">
-        <v>-196</v>
+        <v>-10124</v>
       </c>
       <c r="AF35" s="65">
         <v>0</v>
@@ -5395,16 +5395,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="71">
-        <v>165</v>
+        <v>8512</v>
       </c>
       <c r="AJ35" s="73">
-        <v>178</v>
+        <v>9218</v>
       </c>
       <c r="AK35" s="75">
-        <v>-13</v>
+        <v>-706</v>
       </c>
       <c r="AL35" s="77">
-        <v>39088</v>
+        <v>2022929</v>
       </c>
     </row>
     <row r="36">
@@ -5412,94 +5412,94 @@
         <v>48</v>
       </c>
       <c r="B36" s="5">
-        <v>4115</v>
+        <v>184225</v>
       </c>
       <c r="C36" s="7">
-        <v>2287</v>
+        <v>100992</v>
       </c>
       <c r="D36" s="9">
-        <v>1829</v>
+        <v>83233</v>
       </c>
       <c r="E36" s="11">
-        <v>21572</v>
+        <v>959364</v>
       </c>
       <c r="F36" s="13">
-        <v>23194</v>
+        <v>1035297</v>
       </c>
       <c r="G36" s="15">
-        <v>-1623</v>
+        <v>-75933</v>
       </c>
       <c r="H36" s="17">
-        <v>838</v>
+        <v>37287</v>
       </c>
       <c r="I36" s="19">
-        <v>999</v>
+        <v>42603</v>
       </c>
       <c r="J36" s="21">
-        <v>-161</v>
+        <v>-5315</v>
       </c>
       <c r="K36" s="23">
-        <v>137</v>
+        <v>5980</v>
       </c>
       <c r="L36" s="25">
-        <v>100</v>
+        <v>4194</v>
       </c>
       <c r="M36" s="27">
-        <v>37</v>
+        <v>1786</v>
       </c>
       <c r="N36" s="29">
-        <v>87</v>
+        <v>3883</v>
       </c>
       <c r="O36" s="31">
-        <v>67</v>
+        <v>2875</v>
       </c>
       <c r="P36" s="33">
-        <v>20</v>
+        <v>1008</v>
       </c>
       <c r="Q36" s="35">
-        <v>243</v>
+        <v>10950</v>
       </c>
       <c r="R36" s="37">
-        <v>496</v>
+        <v>21099</v>
       </c>
       <c r="S36" s="39">
-        <v>-253</v>
+        <v>-10149</v>
       </c>
       <c r="T36" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36" s="43">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="V36" s="45">
-        <v>-1</v>
+        <v>-28</v>
       </c>
       <c r="W36" s="47">
-        <v>12</v>
+        <v>553</v>
       </c>
       <c r="X36" s="49">
-        <v>30</v>
+        <v>1309</v>
       </c>
       <c r="Y36" s="51">
-        <v>-18</v>
+        <v>-756</v>
       </c>
       <c r="Z36" s="53">
-        <v>261</v>
+        <v>11435</v>
       </c>
       <c r="AA36" s="55">
-        <v>226</v>
+        <v>9741</v>
       </c>
       <c r="AB36" s="57">
-        <v>35</v>
+        <v>1695</v>
       </c>
       <c r="AC36" s="59">
-        <v>98</v>
+        <v>4483</v>
       </c>
       <c r="AD36" s="61">
-        <v>79</v>
+        <v>3355</v>
       </c>
       <c r="AE36" s="63">
-        <v>19</v>
+        <v>1128</v>
       </c>
       <c r="AF36" s="65">
         <v>0</v>
@@ -5511,16 +5511,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="71">
-        <v>86</v>
+        <v>3786</v>
       </c>
       <c r="AJ36" s="73">
-        <v>131</v>
+        <v>5771</v>
       </c>
       <c r="AK36" s="75">
-        <v>-45</v>
+        <v>-1985</v>
       </c>
       <c r="AL36" s="77">
-        <v>26611</v>
+        <v>1184662</v>
       </c>
     </row>
     <row r="37">
@@ -5528,94 +5528,94 @@
         <v>49</v>
       </c>
       <c r="B37" s="5">
-        <v>11998</v>
+        <v>498737</v>
       </c>
       <c r="C37" s="7">
-        <v>8813</v>
+        <v>362827</v>
       </c>
       <c r="D37" s="9">
-        <v>3185</v>
+        <v>135910</v>
       </c>
       <c r="E37" s="11">
-        <v>41879</v>
+        <v>1778055</v>
       </c>
       <c r="F37" s="13">
-        <v>45286</v>
+        <v>1913758</v>
       </c>
       <c r="G37" s="15">
-        <v>-3406</v>
+        <v>-135703</v>
       </c>
       <c r="H37" s="17">
-        <v>3094</v>
+        <v>118241</v>
       </c>
       <c r="I37" s="19">
-        <v>2856</v>
+        <v>115186</v>
       </c>
       <c r="J37" s="21">
-        <v>238</v>
+        <v>3055</v>
       </c>
       <c r="K37" s="23">
-        <v>691</v>
+        <v>25640</v>
       </c>
       <c r="L37" s="25">
-        <v>735</v>
+        <v>28852</v>
       </c>
       <c r="M37" s="27">
-        <v>-44</v>
+        <v>-3212</v>
       </c>
       <c r="N37" s="29">
-        <v>221</v>
+        <v>8540</v>
       </c>
       <c r="O37" s="31">
-        <v>143</v>
+        <v>6205</v>
       </c>
       <c r="P37" s="33">
-        <v>79</v>
+        <v>2335</v>
       </c>
       <c r="Q37" s="35">
-        <v>639</v>
+        <v>25420</v>
       </c>
       <c r="R37" s="37">
-        <v>582</v>
+        <v>24561</v>
       </c>
       <c r="S37" s="39">
-        <v>57</v>
+        <v>859</v>
       </c>
       <c r="T37" s="41">
-        <v>15</v>
+        <v>677</v>
       </c>
       <c r="U37" s="43">
-        <v>24</v>
+        <v>1106</v>
       </c>
       <c r="V37" s="45">
-        <v>-8</v>
+        <v>-429</v>
       </c>
       <c r="W37" s="47">
-        <v>42</v>
+        <v>1629</v>
       </c>
       <c r="X37" s="49">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="Y37" s="51">
-        <v>38</v>
+        <v>1448</v>
       </c>
       <c r="Z37" s="53">
-        <v>441</v>
+        <v>18340</v>
       </c>
       <c r="AA37" s="55">
-        <v>343</v>
+        <v>14323</v>
       </c>
       <c r="AB37" s="57">
-        <v>98</v>
+        <v>4016</v>
       </c>
       <c r="AC37" s="59">
-        <v>1045</v>
+        <v>37996</v>
       </c>
       <c r="AD37" s="61">
-        <v>1026</v>
+        <v>39958</v>
       </c>
       <c r="AE37" s="63">
-        <v>18</v>
+        <v>-1963</v>
       </c>
       <c r="AF37" s="65">
         <v>0</v>
@@ -5627,16 +5627,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="71">
-        <v>467</v>
+        <v>18102</v>
       </c>
       <c r="AJ37" s="73">
-        <v>483</v>
+        <v>21363</v>
       </c>
       <c r="AK37" s="75">
-        <v>-16</v>
+        <v>-3261</v>
       </c>
       <c r="AL37" s="77">
-        <v>57438</v>
+        <v>2413134</v>
       </c>
     </row>
     <row r="38">
@@ -5644,94 +5644,94 @@
         <v>50</v>
       </c>
       <c r="B38" s="5">
-        <v>4161</v>
+        <v>198740</v>
       </c>
       <c r="C38" s="7">
-        <v>4036</v>
+        <v>193025</v>
       </c>
       <c r="D38" s="9">
-        <v>125</v>
+        <v>5716</v>
       </c>
       <c r="E38" s="11">
-        <v>51406</v>
+        <v>2636630</v>
       </c>
       <c r="F38" s="13">
-        <v>51075</v>
+        <v>2623703</v>
       </c>
       <c r="G38" s="15">
-        <v>331</v>
+        <v>12927</v>
       </c>
       <c r="H38" s="17">
-        <v>2497</v>
+        <v>126683</v>
       </c>
       <c r="I38" s="19">
-        <v>2894</v>
+        <v>143512</v>
       </c>
       <c r="J38" s="21">
-        <v>-397</v>
+        <v>-16829</v>
       </c>
       <c r="K38" s="23">
-        <v>943</v>
+        <v>49113</v>
       </c>
       <c r="L38" s="25">
-        <v>1145</v>
+        <v>58289</v>
       </c>
       <c r="M38" s="27">
-        <v>-202</v>
+        <v>-9176</v>
       </c>
       <c r="N38" s="29">
-        <v>177</v>
+        <v>8619</v>
       </c>
       <c r="O38" s="31">
-        <v>280</v>
+        <v>13440</v>
       </c>
       <c r="P38" s="33">
-        <v>-103</v>
+        <v>-4822</v>
       </c>
       <c r="Q38" s="35">
-        <v>440</v>
+        <v>21666</v>
       </c>
       <c r="R38" s="37">
-        <v>486</v>
+        <v>24217</v>
       </c>
       <c r="S38" s="39">
-        <v>-45</v>
+        <v>-2551</v>
       </c>
       <c r="T38" s="41">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="U38" s="43">
-        <v>17</v>
+        <v>744</v>
       </c>
       <c r="V38" s="45">
-        <v>-15</v>
+        <v>-673</v>
       </c>
       <c r="W38" s="47">
-        <v>35</v>
+        <v>1799</v>
       </c>
       <c r="X38" s="49">
-        <v>9</v>
+        <v>425</v>
       </c>
       <c r="Y38" s="51">
-        <v>27</v>
+        <v>1374</v>
       </c>
       <c r="Z38" s="53">
-        <v>403</v>
+        <v>19686</v>
       </c>
       <c r="AA38" s="55">
-        <v>393</v>
+        <v>19735</v>
       </c>
       <c r="AB38" s="57">
-        <v>9</v>
+        <v>-50</v>
       </c>
       <c r="AC38" s="59">
-        <v>498</v>
+        <v>25729</v>
       </c>
       <c r="AD38" s="61">
-        <v>565</v>
+        <v>26661</v>
       </c>
       <c r="AE38" s="63">
-        <v>-67</v>
+        <v>-931</v>
       </c>
       <c r="AF38" s="65">
         <v>0</v>
@@ -5743,16 +5743,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="71">
-        <v>348</v>
+        <v>17476</v>
       </c>
       <c r="AJ38" s="73">
-        <v>407</v>
+        <v>19289</v>
       </c>
       <c r="AK38" s="75">
-        <v>-59</v>
+        <v>-1814</v>
       </c>
       <c r="AL38" s="77">
-        <v>58412</v>
+        <v>2979529</v>
       </c>
     </row>
     <row r="39">
@@ -5760,94 +5760,94 @@
         <v>51</v>
       </c>
       <c r="B39" s="5">
-        <v>2302</v>
+        <v>96478</v>
       </c>
       <c r="C39" s="7">
-        <v>2178</v>
+        <v>91710</v>
       </c>
       <c r="D39" s="9">
-        <v>123</v>
+        <v>4768</v>
       </c>
       <c r="E39" s="11">
-        <v>19412</v>
+        <v>834013</v>
       </c>
       <c r="F39" s="13">
-        <v>19870</v>
+        <v>853098</v>
       </c>
       <c r="G39" s="15">
-        <v>-458</v>
+        <v>-19086</v>
       </c>
       <c r="H39" s="17">
-        <v>1124</v>
+        <v>47201</v>
       </c>
       <c r="I39" s="19">
-        <v>747</v>
+        <v>31092</v>
       </c>
       <c r="J39" s="21">
-        <v>377</v>
+        <v>16109</v>
       </c>
       <c r="K39" s="23">
-        <v>434</v>
+        <v>17854</v>
       </c>
       <c r="L39" s="25">
-        <v>151</v>
+        <v>6227</v>
       </c>
       <c r="M39" s="27">
-        <v>283</v>
+        <v>11627</v>
       </c>
       <c r="N39" s="29">
-        <v>94</v>
+        <v>3973</v>
       </c>
       <c r="O39" s="31">
-        <v>47</v>
+        <v>1981</v>
       </c>
       <c r="P39" s="33">
-        <v>48</v>
+        <v>1992</v>
       </c>
       <c r="Q39" s="35">
-        <v>190</v>
+        <v>8235</v>
       </c>
       <c r="R39" s="37">
-        <v>263</v>
+        <v>10832</v>
       </c>
       <c r="S39" s="39">
-        <v>-73</v>
+        <v>-2597</v>
       </c>
       <c r="T39" s="41">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="U39" s="43">
-        <v>14</v>
+        <v>571</v>
       </c>
       <c r="V39" s="45">
-        <v>-7</v>
+        <v>-289</v>
       </c>
       <c r="W39" s="47">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="X39" s="49">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="Y39" s="51">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="Z39" s="53">
-        <v>242</v>
+        <v>10282</v>
       </c>
       <c r="AA39" s="55">
-        <v>180</v>
+        <v>7655</v>
       </c>
       <c r="AB39" s="57">
-        <v>61</v>
+        <v>2627</v>
       </c>
       <c r="AC39" s="59">
-        <v>154</v>
+        <v>6432</v>
       </c>
       <c r="AD39" s="61">
-        <v>89</v>
+        <v>3743</v>
       </c>
       <c r="AE39" s="63">
-        <v>65</v>
+        <v>2688</v>
       </c>
       <c r="AF39" s="65">
         <v>0</v>
@@ -5859,16 +5859,16 @@
         <v>0</v>
       </c>
       <c r="AI39" s="71">
-        <v>108</v>
+        <v>4626</v>
       </c>
       <c r="AJ39" s="73">
-        <v>150</v>
+        <v>6417</v>
       </c>
       <c r="AK39" s="75">
-        <v>-43</v>
+        <v>-1791</v>
       </c>
       <c r="AL39" s="77">
-        <v>22945</v>
+        <v>982318</v>
       </c>
     </row>
     <row r="40">
@@ -5876,94 +5876,94 @@
         <v>52</v>
       </c>
       <c r="B40" s="5">
-        <v>3107</v>
+        <v>119548</v>
       </c>
       <c r="C40" s="7">
-        <v>3006</v>
+        <v>116927</v>
       </c>
       <c r="D40" s="9">
-        <v>101</v>
+        <v>2620</v>
       </c>
       <c r="E40" s="11">
-        <v>55837</v>
+        <v>2199145</v>
       </c>
       <c r="F40" s="13">
-        <v>56020</v>
+        <v>2203871</v>
       </c>
       <c r="G40" s="15">
-        <v>-183</v>
+        <v>-4727</v>
       </c>
       <c r="H40" s="17">
-        <v>1445</v>
+        <v>55565</v>
       </c>
       <c r="I40" s="19">
-        <v>1328</v>
+        <v>50981</v>
       </c>
       <c r="J40" s="21">
-        <v>117</v>
+        <v>4584</v>
       </c>
       <c r="K40" s="23">
-        <v>167</v>
+        <v>6544</v>
       </c>
       <c r="L40" s="25">
-        <v>145</v>
+        <v>5859</v>
       </c>
       <c r="M40" s="27">
-        <v>22</v>
+        <v>685</v>
       </c>
       <c r="N40" s="29">
-        <v>78</v>
+        <v>3144</v>
       </c>
       <c r="O40" s="31">
-        <v>43</v>
+        <v>1719</v>
       </c>
       <c r="P40" s="33">
-        <v>35</v>
+        <v>1425</v>
       </c>
       <c r="Q40" s="35">
-        <v>402</v>
+        <v>15023</v>
       </c>
       <c r="R40" s="37">
-        <v>267</v>
+        <v>10792</v>
       </c>
       <c r="S40" s="39">
-        <v>135</v>
+        <v>4231</v>
       </c>
       <c r="T40" s="41">
-        <v>15</v>
+        <v>562</v>
       </c>
       <c r="U40" s="43">
-        <v>39</v>
+        <v>1562</v>
       </c>
       <c r="V40" s="45">
-        <v>-25</v>
+        <v>-1001</v>
       </c>
       <c r="W40" s="47">
-        <v>18</v>
+        <v>718</v>
       </c>
       <c r="X40" s="49">
-        <v>26</v>
+        <v>1147</v>
       </c>
       <c r="Y40" s="51">
-        <v>-8</v>
+        <v>-429</v>
       </c>
       <c r="Z40" s="53">
-        <v>470</v>
+        <v>18651</v>
       </c>
       <c r="AA40" s="55">
-        <v>192</v>
+        <v>7881</v>
       </c>
       <c r="AB40" s="57">
-        <v>278</v>
+        <v>10770</v>
       </c>
       <c r="AC40" s="59">
-        <v>295</v>
+        <v>10923</v>
       </c>
       <c r="AD40" s="61">
-        <v>615</v>
+        <v>22020</v>
       </c>
       <c r="AE40" s="63">
-        <v>-321</v>
+        <v>-11097</v>
       </c>
       <c r="AF40" s="65">
         <v>0</v>
@@ -5975,16 +5975,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="71">
-        <v>419</v>
+        <v>15362</v>
       </c>
       <c r="AJ40" s="73">
-        <v>453</v>
+        <v>17840</v>
       </c>
       <c r="AK40" s="75">
-        <v>-35</v>
+        <v>-2478</v>
       </c>
       <c r="AL40" s="77">
-        <v>60808</v>
+        <v>2389620</v>
       </c>
     </row>
     <row r="41">
@@ -5992,94 +5992,94 @@
         <v>53</v>
       </c>
       <c r="B41" s="5">
-        <v>2817</v>
+        <v>68620</v>
       </c>
       <c r="C41" s="7">
-        <v>2692</v>
+        <v>69219</v>
       </c>
       <c r="D41" s="9">
-        <v>124</v>
+        <v>-599</v>
       </c>
       <c r="E41" s="11">
-        <v>77750</v>
+        <v>2047985</v>
       </c>
       <c r="F41" s="13">
-        <v>78341</v>
+        <v>2056644</v>
       </c>
       <c r="G41" s="15">
-        <v>-590</v>
+        <v>-8658</v>
       </c>
       <c r="H41" s="17">
-        <v>2022</v>
+        <v>49372</v>
       </c>
       <c r="I41" s="19">
-        <v>1727</v>
+        <v>40936</v>
       </c>
       <c r="J41" s="21">
-        <v>295</v>
+        <v>8436</v>
       </c>
       <c r="K41" s="23">
-        <v>327</v>
+        <v>8463</v>
       </c>
       <c r="L41" s="25">
-        <v>236</v>
+        <v>6123</v>
       </c>
       <c r="M41" s="27">
-        <v>91</v>
+        <v>2340</v>
       </c>
       <c r="N41" s="29">
-        <v>41</v>
+        <v>1036</v>
       </c>
       <c r="O41" s="31">
-        <v>146</v>
+        <v>2564</v>
       </c>
       <c r="P41" s="33">
-        <v>-105</v>
+        <v>-1528</v>
       </c>
       <c r="Q41" s="35">
-        <v>366</v>
+        <v>8879</v>
       </c>
       <c r="R41" s="37">
-        <v>367</v>
+        <v>7757</v>
       </c>
       <c r="S41" s="39">
-        <v>-1</v>
+        <v>1122</v>
       </c>
       <c r="T41" s="41">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="U41" s="43">
-        <v>86</v>
+        <v>2061</v>
       </c>
       <c r="V41" s="45">
-        <v>-74</v>
+        <v>-1752</v>
       </c>
       <c r="W41" s="47">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="X41" s="49">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="Y41" s="51">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="Z41" s="53">
-        <v>764</v>
+        <v>17609</v>
       </c>
       <c r="AA41" s="55">
-        <v>422</v>
+        <v>8573</v>
       </c>
       <c r="AB41" s="57">
-        <v>342</v>
+        <v>9036</v>
       </c>
       <c r="AC41" s="59">
-        <v>503</v>
+        <v>12852</v>
       </c>
       <c r="AD41" s="61">
-        <v>463</v>
+        <v>13680</v>
       </c>
       <c r="AE41" s="63">
-        <v>40</v>
+        <v>-827</v>
       </c>
       <c r="AF41" s="65">
         <v>0</v>
@@ -6091,16 +6091,16 @@
         <v>0</v>
       </c>
       <c r="AI41" s="71">
-        <v>646</v>
+        <v>13665</v>
       </c>
       <c r="AJ41" s="73">
-        <v>475</v>
+        <v>12844</v>
       </c>
       <c r="AK41" s="75">
-        <v>171</v>
+        <v>821</v>
       </c>
       <c r="AL41" s="77">
-        <v>83235</v>
+        <v>2179642</v>
       </c>
     </row>
     <row r="42">
@@ -6108,94 +6108,94 @@
         <v>54</v>
       </c>
       <c r="B42" s="5">
-        <v>4778</v>
+        <v>53346</v>
       </c>
       <c r="C42" s="7">
-        <v>4580</v>
+        <v>52894</v>
       </c>
       <c r="D42" s="9">
-        <v>198</v>
+        <v>452</v>
       </c>
       <c r="E42" s="11">
-        <v>164546</v>
+        <v>1920209</v>
       </c>
       <c r="F42" s="13">
-        <v>166048</v>
+        <v>1933566</v>
       </c>
       <c r="G42" s="15">
-        <v>-1502</v>
+        <v>-13357</v>
       </c>
       <c r="H42" s="17">
-        <v>1761</v>
+        <v>18137</v>
       </c>
       <c r="I42" s="19">
-        <v>585</v>
+        <v>6707</v>
       </c>
       <c r="J42" s="21">
-        <v>1176</v>
+        <v>11431</v>
       </c>
       <c r="K42" s="23">
-        <v>157</v>
+        <v>1512</v>
       </c>
       <c r="L42" s="25">
-        <v>123</v>
+        <v>1281</v>
       </c>
       <c r="M42" s="27">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="N42" s="29">
-        <v>77</v>
+        <v>888</v>
       </c>
       <c r="O42" s="31">
-        <v>47</v>
+        <v>647</v>
       </c>
       <c r="P42" s="33">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="Q42" s="35">
-        <v>518</v>
+        <v>5403</v>
       </c>
       <c r="R42" s="37">
-        <v>154</v>
+        <v>1979</v>
       </c>
       <c r="S42" s="39">
-        <v>363</v>
+        <v>3425</v>
       </c>
       <c r="T42" s="41">
-        <v>81</v>
+        <v>791</v>
       </c>
       <c r="U42" s="43">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="V42" s="45">
-        <v>75</v>
+        <v>737</v>
       </c>
       <c r="W42" s="47">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="X42" s="49">
         <v>0</v>
       </c>
       <c r="Y42" s="51">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="Z42" s="53">
-        <v>608</v>
+        <v>6543</v>
       </c>
       <c r="AA42" s="55">
-        <v>105</v>
+        <v>1259</v>
       </c>
       <c r="AB42" s="57">
-        <v>504</v>
+        <v>5284</v>
       </c>
       <c r="AC42" s="59">
-        <v>311</v>
+        <v>2911</v>
       </c>
       <c r="AD42" s="61">
-        <v>151</v>
+        <v>1487</v>
       </c>
       <c r="AE42" s="63">
-        <v>160</v>
+        <v>1424</v>
       </c>
       <c r="AF42" s="65">
         <v>0</v>
@@ -6207,16 +6207,16 @@
         <v>0</v>
       </c>
       <c r="AI42" s="71">
-        <v>622</v>
+        <v>7510</v>
       </c>
       <c r="AJ42" s="73">
-        <v>494</v>
+        <v>6037</v>
       </c>
       <c r="AK42" s="75">
-        <v>128</v>
+        <v>1473</v>
       </c>
       <c r="AL42" s="77">
-        <v>171706</v>
+        <v>1999202</v>
       </c>
     </row>
     <row r="43">
@@ -6224,94 +6224,94 @@
         <v>55</v>
       </c>
       <c r="B43" s="5">
-        <v>2247</v>
+        <v>16352</v>
       </c>
       <c r="C43" s="7">
-        <v>2456</v>
+        <v>17863</v>
       </c>
       <c r="D43" s="9">
-        <v>-209</v>
+        <v>-1511</v>
       </c>
       <c r="E43" s="11">
-        <v>64284</v>
+        <v>493281</v>
       </c>
       <c r="F43" s="13">
-        <v>64007</v>
+        <v>490830</v>
       </c>
       <c r="G43" s="15">
-        <v>277</v>
+        <v>2450</v>
       </c>
       <c r="H43" s="17">
-        <v>525</v>
+        <v>3506</v>
       </c>
       <c r="I43" s="19">
-        <v>592</v>
+        <v>4443</v>
       </c>
       <c r="J43" s="21">
-        <v>-68</v>
+        <v>-937</v>
       </c>
       <c r="K43" s="23">
-        <v>97</v>
+        <v>650</v>
       </c>
       <c r="L43" s="25">
-        <v>106</v>
+        <v>777</v>
       </c>
       <c r="M43" s="27">
-        <v>-9</v>
+        <v>-127</v>
       </c>
       <c r="N43" s="29">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="O43" s="31">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="P43" s="33">
-        <v>-20</v>
+        <v>-151</v>
       </c>
       <c r="Q43" s="35">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="R43" s="37">
-        <v>136</v>
+        <v>1047</v>
       </c>
       <c r="S43" s="39">
-        <v>-106</v>
+        <v>-848</v>
       </c>
       <c r="T43" s="41">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="U43" s="43">
         <v>0</v>
       </c>
       <c r="V43" s="45">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="W43" s="47">
         <v>0</v>
       </c>
       <c r="X43" s="49">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Y43" s="51">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="Z43" s="53">
-        <v>105</v>
+        <v>733</v>
       </c>
       <c r="AA43" s="55">
-        <v>193</v>
+        <v>1454</v>
       </c>
       <c r="AB43" s="57">
-        <v>-88</v>
+        <v>-720</v>
       </c>
       <c r="AC43" s="59">
-        <v>283</v>
+        <v>1859</v>
       </c>
       <c r="AD43" s="61">
-        <v>130</v>
+        <v>961</v>
       </c>
       <c r="AE43" s="63">
-        <v>153</v>
+        <v>898</v>
       </c>
       <c r="AF43" s="65">
         <v>0</v>
@@ -6323,16 +6323,16 @@
         <v>0</v>
       </c>
       <c r="AI43" s="71">
-        <v>57</v>
+        <v>434</v>
       </c>
       <c r="AJ43" s="73">
-        <v>57</v>
+        <v>436</v>
       </c>
       <c r="AK43" s="75">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AL43" s="77">
-        <v>67113</v>
+        <v>513572</v>
       </c>
     </row>
     <row r="44">
@@ -6340,94 +6340,94 @@
         <v>56</v>
       </c>
       <c r="B44" s="5">
-        <v>3337</v>
+        <v>19309</v>
       </c>
       <c r="C44" s="7">
-        <v>3118</v>
+        <v>17967</v>
       </c>
       <c r="D44" s="9">
-        <v>219</v>
+        <v>1342</v>
       </c>
       <c r="E44" s="11">
-        <v>14663</v>
+        <v>86256</v>
       </c>
       <c r="F44" s="13">
-        <v>15152</v>
+        <v>88980</v>
       </c>
       <c r="G44" s="15">
-        <v>-489</v>
+        <v>-2724</v>
       </c>
       <c r="H44" s="17">
-        <v>1149</v>
+        <v>6892</v>
       </c>
       <c r="I44" s="19">
-        <v>866</v>
+        <v>5434</v>
       </c>
       <c r="J44" s="21">
+        <v>1458</v>
+      </c>
+      <c r="K44" s="23">
+        <v>1126</v>
+      </c>
+      <c r="L44" s="25">
+        <v>627</v>
+      </c>
+      <c r="M44" s="27">
+        <v>499</v>
+      </c>
+      <c r="N44" s="29">
+        <v>451</v>
+      </c>
+      <c r="O44" s="31">
+        <v>900</v>
+      </c>
+      <c r="P44" s="33">
+        <v>-449</v>
+      </c>
+      <c r="Q44" s="35">
         <v>283</v>
       </c>
-      <c r="K44" s="23">
+      <c r="R44" s="37">
+        <v>951</v>
+      </c>
+      <c r="S44" s="39">
+        <v>-668</v>
+      </c>
+      <c r="T44" s="41">
+        <v>227</v>
+      </c>
+      <c r="U44" s="43">
+        <v>280</v>
+      </c>
+      <c r="V44" s="45">
+        <v>-53</v>
+      </c>
+      <c r="W44" s="47">
+        <v>51</v>
+      </c>
+      <c r="X44" s="49">
         <v>196</v>
       </c>
-      <c r="L44" s="25">
-        <v>90</v>
-      </c>
-      <c r="M44" s="27">
-        <v>106</v>
-      </c>
-      <c r="N44" s="29">
-        <v>81</v>
-      </c>
-      <c r="O44" s="31">
-        <v>148</v>
-      </c>
-      <c r="P44" s="33">
-        <v>-68</v>
-      </c>
-      <c r="Q44" s="35">
-        <v>51</v>
-      </c>
-      <c r="R44" s="37">
-        <v>148</v>
-      </c>
-      <c r="S44" s="39">
-        <v>-97</v>
-      </c>
-      <c r="T44" s="41">
-        <v>44</v>
-      </c>
-      <c r="U44" s="43">
-        <v>53</v>
-      </c>
-      <c r="V44" s="45">
-        <v>-9</v>
-      </c>
-      <c r="W44" s="47">
-        <v>9</v>
-      </c>
-      <c r="X44" s="49">
-        <v>30</v>
-      </c>
       <c r="Y44" s="51">
-        <v>-22</v>
+        <v>-145</v>
       </c>
       <c r="Z44" s="53">
-        <v>490</v>
+        <v>3381</v>
       </c>
       <c r="AA44" s="55">
-        <v>123</v>
+        <v>645</v>
       </c>
       <c r="AB44" s="57">
-        <v>367</v>
+        <v>2736</v>
       </c>
       <c r="AC44" s="59">
-        <v>278</v>
+        <v>1373</v>
       </c>
       <c r="AD44" s="61">
-        <v>273</v>
+        <v>1834</v>
       </c>
       <c r="AE44" s="63">
-        <v>5</v>
+        <v>-461</v>
       </c>
       <c r="AF44" s="65">
         <v>0</v>
@@ -6439,16 +6439,16 @@
         <v>0</v>
       </c>
       <c r="AI44" s="71">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="AJ44" s="73">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="AK44" s="75">
-        <v>-13</v>
+        <v>-76</v>
       </c>
       <c r="AL44" s="77">
-        <v>19175</v>
+        <v>112612</v>
       </c>
     </row>
     <row r="45">
@@ -6456,94 +6456,94 @@
         <v>57</v>
       </c>
       <c r="B45" s="5">
-        <v>1787</v>
+        <v>14008</v>
       </c>
       <c r="C45" s="7">
-        <v>2924</v>
+        <v>22783</v>
       </c>
       <c r="D45" s="9">
-        <v>-1137</v>
+        <v>-8775</v>
       </c>
       <c r="E45" s="11">
-        <v>16596</v>
+        <v>131222</v>
       </c>
       <c r="F45" s="13">
-        <v>15682</v>
+        <v>124482</v>
       </c>
       <c r="G45" s="15">
-        <v>914</v>
+        <v>6741</v>
       </c>
       <c r="H45" s="17">
-        <v>1214</v>
+        <v>9693</v>
       </c>
       <c r="I45" s="19">
-        <v>972</v>
+        <v>7521</v>
       </c>
       <c r="J45" s="21">
-        <v>243</v>
+        <v>2172</v>
       </c>
       <c r="K45" s="23">
-        <v>553</v>
+        <v>4406</v>
       </c>
       <c r="L45" s="25">
-        <v>257</v>
+        <v>1958</v>
       </c>
       <c r="M45" s="27">
-        <v>296</v>
+        <v>2448</v>
       </c>
       <c r="N45" s="29">
-        <v>157</v>
+        <v>1294</v>
       </c>
       <c r="O45" s="31">
-        <v>158</v>
+        <v>1252</v>
       </c>
       <c r="P45" s="33">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="Q45" s="35">
+        <v>1082</v>
+      </c>
+      <c r="R45" s="37">
+        <v>2281</v>
+      </c>
+      <c r="S45" s="39">
+        <v>-1199</v>
+      </c>
+      <c r="T45" s="41">
+        <v>72</v>
+      </c>
+      <c r="U45" s="43">
         <v>138</v>
       </c>
-      <c r="R45" s="37">
-        <v>293</v>
-      </c>
-      <c r="S45" s="39">
-        <v>-155</v>
-      </c>
-      <c r="T45" s="41">
-        <v>9</v>
-      </c>
-      <c r="U45" s="43">
-        <v>18</v>
-      </c>
       <c r="V45" s="45">
-        <v>-8</v>
+        <v>-67</v>
       </c>
       <c r="W45" s="47">
         <v>0</v>
       </c>
       <c r="X45" s="49">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="Y45" s="51">
-        <v>-5</v>
+        <v>-40</v>
       </c>
       <c r="Z45" s="53">
-        <v>141</v>
+        <v>1092</v>
       </c>
       <c r="AA45" s="55">
-        <v>54</v>
+        <v>422</v>
       </c>
       <c r="AB45" s="57">
-        <v>87</v>
+        <v>670</v>
       </c>
       <c r="AC45" s="59">
-        <v>217</v>
+        <v>1749</v>
       </c>
       <c r="AD45" s="61">
-        <v>187</v>
+        <v>1430</v>
       </c>
       <c r="AE45" s="63">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="AF45" s="65">
         <v>0</v>
@@ -6555,16 +6555,16 @@
         <v>0</v>
       </c>
       <c r="AI45" s="71">
-        <v>43</v>
+        <v>347</v>
       </c>
       <c r="AJ45" s="73">
-        <v>63</v>
+        <v>485</v>
       </c>
       <c r="AK45" s="75">
-        <v>-20</v>
+        <v>-137</v>
       </c>
       <c r="AL45" s="77">
-        <v>19641</v>
+        <v>155271</v>
       </c>
     </row>
     <row r="46">
@@ -6572,94 +6572,94 @@
         <v>58</v>
       </c>
       <c r="B46" s="5">
-        <v>1733</v>
+        <v>14434</v>
       </c>
       <c r="C46" s="7">
-        <v>2109</v>
+        <v>17299</v>
       </c>
       <c r="D46" s="9">
-        <v>-376</v>
+        <v>-2866</v>
       </c>
       <c r="E46" s="11">
-        <v>16661</v>
+        <v>137802</v>
       </c>
       <c r="F46" s="13">
-        <v>16711</v>
+        <v>138432</v>
       </c>
       <c r="G46" s="15">
-        <v>-51</v>
+        <v>-630</v>
       </c>
       <c r="H46" s="17">
-        <v>735</v>
+        <v>6038</v>
       </c>
       <c r="I46" s="19">
-        <v>286</v>
+        <v>2380</v>
       </c>
       <c r="J46" s="21">
-        <v>449</v>
+        <v>3658</v>
       </c>
       <c r="K46" s="23">
-        <v>155</v>
+        <v>1254</v>
       </c>
       <c r="L46" s="25">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="M46" s="27">
-        <v>114</v>
+        <v>918</v>
       </c>
       <c r="N46" s="29">
-        <v>89</v>
+        <v>733</v>
       </c>
       <c r="O46" s="31">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="P46" s="33">
-        <v>82</v>
+        <v>679</v>
       </c>
       <c r="Q46" s="35">
-        <v>141</v>
+        <v>1153</v>
       </c>
       <c r="R46" s="37">
-        <v>121</v>
+        <v>1008</v>
       </c>
       <c r="S46" s="39">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="T46" s="41">
-        <v>53</v>
+        <v>448</v>
       </c>
       <c r="U46" s="43">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="V46" s="45">
-        <v>48</v>
+        <v>406</v>
       </c>
       <c r="W46" s="47">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="X46" s="49">
         <v>0</v>
       </c>
       <c r="Y46" s="51">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="Z46" s="53">
-        <v>203</v>
+        <v>1668</v>
       </c>
       <c r="AA46" s="55">
-        <v>76</v>
+        <v>630</v>
       </c>
       <c r="AB46" s="57">
-        <v>127</v>
+        <v>1038</v>
       </c>
       <c r="AC46" s="59">
-        <v>71</v>
+        <v>586</v>
       </c>
       <c r="AD46" s="61">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="AE46" s="63">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="AF46" s="65">
         <v>0</v>
@@ -6671,16 +6671,16 @@
         <v>0</v>
       </c>
       <c r="AI46" s="71">
-        <v>76</v>
+        <v>648</v>
       </c>
       <c r="AJ46" s="73">
-        <v>98</v>
+        <v>811</v>
       </c>
       <c r="AK46" s="75">
-        <v>-22</v>
+        <v>-162</v>
       </c>
       <c r="AL46" s="77">
-        <v>19205</v>
+        <v>158921</v>
       </c>
     </row>
     <row r="47">
@@ -6688,67 +6688,67 @@
         <v>59</v>
       </c>
       <c r="B47" s="5">
-        <v>2299</v>
+        <v>19111</v>
       </c>
       <c r="C47" s="7">
-        <v>1912</v>
+        <v>15998</v>
       </c>
       <c r="D47" s="9">
-        <v>387</v>
+        <v>3113</v>
       </c>
       <c r="E47" s="11">
-        <v>32311</v>
+        <v>269963</v>
       </c>
       <c r="F47" s="13">
-        <v>32918</v>
+        <v>274871</v>
       </c>
       <c r="G47" s="15">
-        <v>-607</v>
+        <v>-4908</v>
       </c>
       <c r="H47" s="17">
-        <v>1267</v>
+        <v>10443</v>
       </c>
       <c r="I47" s="19">
-        <v>1046</v>
+        <v>8604</v>
       </c>
       <c r="J47" s="21">
-        <v>221</v>
+        <v>1839</v>
       </c>
       <c r="K47" s="23">
-        <v>466</v>
+        <v>3852</v>
       </c>
       <c r="L47" s="25">
-        <v>443</v>
+        <v>3591</v>
       </c>
       <c r="M47" s="27">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="N47" s="29">
-        <v>162</v>
+        <v>1323</v>
       </c>
       <c r="O47" s="31">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="P47" s="33">
-        <v>139</v>
+        <v>1140</v>
       </c>
       <c r="Q47" s="35">
-        <v>300</v>
+        <v>2486</v>
       </c>
       <c r="R47" s="37">
-        <v>505</v>
+        <v>4200</v>
       </c>
       <c r="S47" s="39">
-        <v>-205</v>
+        <v>-1714</v>
       </c>
       <c r="T47" s="41">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="U47" s="43">
         <v>0</v>
       </c>
       <c r="V47" s="45">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="W47" s="47">
         <v>0</v>
@@ -6760,22 +6760,22 @@
         <v>0</v>
       </c>
       <c r="Z47" s="53">
-        <v>263</v>
+        <v>2148</v>
       </c>
       <c r="AA47" s="55">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="AB47" s="57">
-        <v>229</v>
+        <v>1860</v>
       </c>
       <c r="AC47" s="59">
-        <v>62</v>
+        <v>524</v>
       </c>
       <c r="AD47" s="61">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="AE47" s="63">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="AF47" s="65">
         <v>0</v>
@@ -6787,16 +6787,16 @@
         <v>0</v>
       </c>
       <c r="AI47" s="71">
-        <v>147</v>
+        <v>1213</v>
       </c>
       <c r="AJ47" s="73">
-        <v>148</v>
+        <v>1257</v>
       </c>
       <c r="AK47" s="75">
-        <v>-1</v>
+        <v>-44</v>
       </c>
       <c r="AL47" s="77">
-        <v>36024</v>
+        <v>300730</v>
       </c>
     </row>
     <row r="48">
@@ -6804,67 +6804,67 @@
         <v>60</v>
       </c>
       <c r="B48" s="5">
-        <v>3684</v>
+        <v>31684</v>
       </c>
       <c r="C48" s="7">
-        <v>3402</v>
+        <v>29588</v>
       </c>
       <c r="D48" s="9">
-        <v>282</v>
+        <v>2096</v>
       </c>
       <c r="E48" s="11">
-        <v>99260</v>
+        <v>868917</v>
       </c>
       <c r="F48" s="13">
-        <v>100261</v>
+        <v>876669</v>
       </c>
       <c r="G48" s="15">
-        <v>-1001</v>
+        <v>-7752</v>
       </c>
       <c r="H48" s="17">
-        <v>2196</v>
+        <v>18481</v>
       </c>
       <c r="I48" s="19">
-        <v>1489</v>
+        <v>12625</v>
       </c>
       <c r="J48" s="21">
-        <v>707</v>
+        <v>5856</v>
       </c>
       <c r="K48" s="23">
-        <v>1080</v>
+        <v>9216</v>
       </c>
       <c r="L48" s="25">
-        <v>970</v>
+        <v>8104</v>
       </c>
       <c r="M48" s="27">
-        <v>111</v>
+        <v>1113</v>
       </c>
       <c r="N48" s="29">
-        <v>125</v>
+        <v>1010</v>
       </c>
       <c r="O48" s="31">
-        <v>65</v>
+        <v>546</v>
       </c>
       <c r="P48" s="33">
-        <v>60</v>
+        <v>464</v>
       </c>
       <c r="Q48" s="35">
-        <v>533</v>
+        <v>4274</v>
       </c>
       <c r="R48" s="37">
-        <v>209</v>
+        <v>1797</v>
       </c>
       <c r="S48" s="39">
-        <v>324</v>
+        <v>2477</v>
       </c>
       <c r="T48" s="41">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="U48" s="43">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="V48" s="45">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="W48" s="47">
         <v>0</v>
@@ -6876,22 +6876,22 @@
         <v>0</v>
       </c>
       <c r="Z48" s="53">
-        <v>369</v>
+        <v>3181</v>
       </c>
       <c r="AA48" s="55">
-        <v>118</v>
+        <v>1067</v>
       </c>
       <c r="AB48" s="57">
-        <v>251</v>
+        <v>2115</v>
       </c>
       <c r="AC48" s="59">
-        <v>85</v>
+        <v>761</v>
       </c>
       <c r="AD48" s="61">
-        <v>126</v>
+        <v>1095</v>
       </c>
       <c r="AE48" s="63">
-        <v>-41</v>
+        <v>-333</v>
       </c>
       <c r="AF48" s="65">
         <v>0</v>
@@ -6903,16 +6903,16 @@
         <v>0</v>
       </c>
       <c r="AI48" s="71">
-        <v>1006</v>
+        <v>8624</v>
       </c>
       <c r="AJ48" s="73">
-        <v>993</v>
+        <v>8824</v>
       </c>
       <c r="AK48" s="75">
-        <v>12</v>
+        <v>-200</v>
       </c>
       <c r="AL48" s="77">
-        <v>106146</v>
+        <v>927705</v>
       </c>
     </row>
     <row r="49">
@@ -6920,94 +6920,94 @@
         <v>61</v>
       </c>
       <c r="B49" s="6">
-        <v>1850</v>
+        <v>14634</v>
       </c>
       <c r="C49" s="8">
-        <v>3519</v>
+        <v>28447</v>
       </c>
       <c r="D49" s="10">
-        <v>-1670</v>
+        <v>-13813</v>
       </c>
       <c r="E49" s="12">
-        <v>186968</v>
+        <v>1523585</v>
       </c>
       <c r="F49" s="14">
-        <v>175012</v>
+        <v>1431429</v>
       </c>
       <c r="G49" s="16">
-        <v>11956</v>
+        <v>92156</v>
       </c>
       <c r="H49" s="18">
-        <v>1465</v>
+        <v>10732</v>
       </c>
       <c r="I49" s="20">
-        <v>11764</v>
+        <v>88987</v>
       </c>
       <c r="J49" s="22">
-        <v>-10300</v>
+        <v>-78256</v>
       </c>
       <c r="K49" s="24">
-        <v>1232</v>
+        <v>9028</v>
       </c>
       <c r="L49" s="26">
-        <v>1987</v>
+        <v>15420</v>
       </c>
       <c r="M49" s="28">
-        <v>-756</v>
+        <v>-6392</v>
       </c>
       <c r="N49" s="30">
-        <v>95</v>
+        <v>678</v>
       </c>
       <c r="O49" s="32">
-        <v>1577</v>
+        <v>12038</v>
       </c>
       <c r="P49" s="34">
-        <v>-1482</v>
+        <v>-11360</v>
       </c>
       <c r="Q49" s="36">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="R49" s="38">
-        <v>1658</v>
+        <v>12657</v>
       </c>
       <c r="S49" s="40">
-        <v>-1628</v>
+        <v>-12444</v>
       </c>
       <c r="T49" s="42">
         <v>0</v>
       </c>
       <c r="U49" s="44">
-        <v>111</v>
+        <v>832</v>
       </c>
       <c r="V49" s="46">
-        <v>-111</v>
+        <v>-832</v>
       </c>
       <c r="W49" s="48">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="X49" s="50">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="Y49" s="52">
-        <v>-36</v>
+        <v>-290</v>
       </c>
       <c r="Z49" s="54">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="AA49" s="56">
-        <v>4420</v>
+        <v>33245</v>
       </c>
       <c r="AB49" s="58">
-        <v>-4389</v>
+        <v>-33013</v>
       </c>
       <c r="AC49" s="60">
-        <v>67</v>
+        <v>513</v>
       </c>
       <c r="AD49" s="62">
-        <v>1965</v>
+        <v>14437</v>
       </c>
       <c r="AE49" s="64">
-        <v>-1898</v>
+        <v>-13924</v>
       </c>
       <c r="AF49" s="66">
         <v>0</v>
@@ -7019,16 +7019,16 @@
         <v>0</v>
       </c>
       <c r="AI49" s="72">
-        <v>729</v>
+        <v>5797</v>
       </c>
       <c r="AJ49" s="74">
-        <v>716</v>
+        <v>5884</v>
       </c>
       <c r="AK49" s="76">
-        <v>13</v>
+        <v>-87</v>
       </c>
       <c r="AL49" s="78">
-        <v>191012</v>
+        <v>1554747</v>
       </c>
     </row>
   </sheetData>
